--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABC18D9-C97D-4639-80C0-B6EB746D5391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A12FB32-2505-4481-9844-138FA3154C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,26 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241105_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 디스크 장치 및 파티션 이름 부여 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-05 18:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,11 +561,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A12FB32-2505-4481-9844-138FA3154C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38104FF-A0DE-470F-8A08-B6293CED61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>2024-11-05 18:00:00 +0900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38104FF-A0DE-470F-8A08-B6293CED61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB7018-A314-054A-982C-8D6CD8FC8471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,22 @@
   </si>
   <si>
     <t>2024-11-05 18:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241106_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스크와 파티션, 드라이브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerScience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-06 23:50:00 + 0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,10 +509,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
@@ -505,7 +521,7 @@
     <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -539,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -556,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -573,147 +589,157 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB7018-A314-054A-982C-8D6CD8FC8471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C637952-01F4-4E49-8F8A-C43E0E5FA74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +130,38 @@
   </si>
   <si>
     <t>2024-11-06 23:50:00 + 0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIX와 LINUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINUX의 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINUX의 배포판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중(옵시디언)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,23 +548,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,8 +581,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -554,8 +601,9 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -571,8 +619,11 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -588,8 +639,11 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -605,149 +659,198 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C637952-01F4-4E49-8F8A-C43E0E5FA74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE8D81-0470-4BD2-8B9B-7BD5639C70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,11 +157,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방송통신대 2024-02 UNIX 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성중(옵시디언)</t>
+    <t>20241112_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-12 12:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 2강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,6 +276,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -552,7 +561,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,7 +571,7 @@
     <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -640,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,23 +669,27 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -690,7 +703,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,7 +717,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,7 +731,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE8D81-0470-4BD2-8B9B-7BD5639C70A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B347A29-A7D6-4F23-91F2-349C152C030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>방송통신대 2024-02 UNIX 시스템 2강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집화의 개념과 적용 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집화의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K-평균 군집화 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계층적 군집화 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine_learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 4강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,35 +760,59 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B347A29-A7D6-4F23-91F2-349C152C030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB602D-F8C3-401E-9471-398ACFD3AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,186 @@
   </si>
   <si>
     <t>방송통신대 2024-02 머신러닝 시스템 4강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸의 개념과 기본적인 사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 명령어의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 명령 히스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 명령에서의 특수문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 3강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 및 디렉터리 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 및 디렉터리 접근권한 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 내용 확인과 출력하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 4강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스의 부팅 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 초기화 데몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemd, 유닛, 시스템 서비스의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 시스템의 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 5강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 사용자 계정과 파일의 접근 권한 (앞쪽 뒤쪽 혼합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 su, sudo 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 사용자 및 그룹 계정 관리 파일 (중간중간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 그룹 계정의 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 사용자 계정 생성과 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 6강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 텍스트 편집기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스에서 텍스트 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi 편집기 사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 문자열 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 7강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝의 개념 (5-13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 시스템 개발 과정 (14-16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝의 종류와 대상 주제 (27-41, 대략적으로만 설명하면 됨. 이전 내용은 패스해도 됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝의 유형 (44, 지도, 비지도…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 베이즈 분류기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - K-최근접이웃 분류기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 분류 모델의 종류 (35p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 2강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 회귀 모델의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 선형 회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 선형 회귀의 확정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 로지스틱 회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 3강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -638,280 +818,786 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB602D-F8C3-401E-9471-398ACFD3AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A39ADD-8A0F-3347-8CEC-298BE02D36A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>셸의 개념과 기본적인 사용법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,6 +370,148 @@
   </si>
   <si>
     <t>방송통신대 2024-02 머신러닝 시스템 3강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조란 무엇인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 배열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 큐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 연결 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 연결 리스트의 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 스레드 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 힙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 그래프 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 그래프 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 2강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 3강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 4강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 5강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 6강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 7강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 8강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 9강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 10강</t>
+  </si>
+  <si>
+    <t>자료구조 - 숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 선택 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 11강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 이진 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 이진 탐색 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - BB 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - AVL 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - Splay 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 멀티웨이 탐색 트리 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 12강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 멀티웨이 탐색 트리 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 13강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 14강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 15강</t>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 컴퓨터구조 1강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조는 책보고 정리하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,11 +602,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +630,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -761,24 +911,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -816,7 +966,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -836,7 +986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -850,7 +1000,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -864,7 +1014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -878,7 +1028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,7 +1048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -918,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -938,10 +1088,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -949,13 +1099,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -963,13 +1113,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -977,13 +1127,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -991,13 +1141,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1005,13 +1155,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1019,13 +1169,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1033,13 +1183,13 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1047,13 +1197,13 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1061,13 +1211,13 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1075,13 +1225,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1089,13 +1239,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1103,13 +1253,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1117,13 +1267,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1131,13 +1281,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1145,13 +1295,13 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1159,13 +1309,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1173,13 +1323,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1187,13 +1337,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1201,13 +1351,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1215,13 +1365,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1229,13 +1379,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1243,13 +1393,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1257,13 +1407,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>37</v>
@@ -1271,13 +1421,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>37</v>
@@ -1285,13 +1435,13 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -1299,13 +1449,13 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>37</v>
@@ -1313,13 +1463,13 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>37</v>
@@ -1327,13 +1477,13 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>37</v>
@@ -1341,13 +1491,13 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>37</v>
@@ -1355,13 +1505,13 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>37</v>
@@ -1369,13 +1519,13 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>37</v>
@@ -1383,13 +1533,13 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>37</v>
@@ -1397,13 +1547,13 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>37</v>
@@ -1411,13 +1561,13 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>37</v>
@@ -1425,13 +1575,13 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>37</v>
@@ -1439,10 +1589,10 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>33</v>
@@ -1456,7 +1606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>34</v>
@@ -1470,7 +1620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>35</v>
@@ -1484,7 +1634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>36</v>
@@ -1498,103 +1648,426 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A39ADD-8A0F-3347-8CEC-298BE02D36A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B84C8F-884F-4D28-8FB7-6F785447C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>machine_learning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방송통신대 2024-02 머신러닝 시스템 4강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>머신러닝의 개념 (5-13)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머신러닝 시스템 개발 과정 (14-16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>머신러닝의 종류와 대상 주제 (27-41, 대략적으로만 설명하면 됨. 이전 내용은 패스해도 됨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,6 +500,42 @@
   </si>
   <si>
     <t>자료구조는 책보고 정리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능의 개념과 역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝의 처리 과정과 머신러닝 시스템 개발 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-14 13:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241114_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241021_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241020_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,7 +654,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -911,24 +936,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -948,7 +973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,7 +991,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1000,7 +1025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1014,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1028,7 +1053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1093,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1088,10 +1113,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1099,13 +1124,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1113,13 +1138,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1127,13 +1152,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1141,13 +1166,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1155,13 +1180,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1169,13 +1194,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1183,13 +1208,13 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1197,13 +1222,13 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1211,13 +1236,13 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1225,13 +1250,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1239,13 +1264,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1253,13 +1278,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1267,13 +1292,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1281,13 +1306,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1295,13 +1320,13 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1309,13 +1334,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1323,13 +1348,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1337,13 +1362,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1351,13 +1376,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1365,13 +1390,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1379,13 +1404,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1393,13 +1418,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1407,549 +1432,573 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D34" s="7">
+        <v>45586</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>82</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1957,7 +2006,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1965,7 +2014,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1973,7 +2022,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1981,7 +2030,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1989,7 +2038,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1997,7 +2046,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2005,7 +2054,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2013,7 +2062,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2021,7 +2070,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2029,7 +2078,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2037,7 +2086,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2045,7 +2094,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2053,7 +2102,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2061,7 +2110,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2069,6 +2118,14 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B84C8F-884F-4D28-8FB7-6F785447C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB3763-9F66-6845-8AA5-3478BCB32F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="2220" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,14 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>머신러닝의 종류와 대상 주제 (27-41, 대략적으로만 설명하면 됨. 이전 내용은 패스해도 됨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머신러닝의 유형 (44, 지도, 비지도…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분류 모델 - 개념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,6 +528,42 @@
   </si>
   <si>
     <t>20241020_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241114_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-14 23:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝의 주제와 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241115_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-15 00:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 학습 시스템의 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241115_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝의 기본 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-15 01:00:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,24 +964,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -973,7 +1001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -991,7 +1019,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1025,7 +1053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1039,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1053,7 +1081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -1127,7 +1155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -1141,7 +1169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
@@ -1155,7 +1183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1169,7 +1197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1183,7 +1211,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -1197,7 +1225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -1211,7 +1239,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -1225,7 +1253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1239,7 +1267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -1253,7 +1281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -1267,7 +1295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>51</v>
@@ -1281,7 +1309,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>52</v>
@@ -1295,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -1309,7 +1337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>56</v>
@@ -1323,7 +1351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>55</v>
@@ -1337,7 +1365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>58</v>
@@ -1351,7 +1379,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>57</v>
@@ -1365,7 +1393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>61</v>
@@ -1379,7 +1407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
@@ -1393,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>62</v>
@@ -1407,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>63</v>
@@ -1421,7 +1449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>64</v>
@@ -1435,241 +1463,259 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="7">
         <v>45585</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="7">
         <v>45586</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1677,13 +1723,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1691,13 +1737,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1705,308 +1751,314 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2014,7 +2066,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2022,7 +2074,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2030,7 +2082,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2038,7 +2090,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2046,7 +2098,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2054,7 +2106,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2062,7 +2114,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2070,7 +2122,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2078,7 +2130,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2086,7 +2138,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2094,7 +2146,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2102,7 +2154,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2110,7 +2162,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2118,7 +2170,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2126,6 +2178,14 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB3763-9F66-6845-8AA5-3478BCB32F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E511A-FE7B-4915-9873-720271FC4E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="2220" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22740" yWindow="2445" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,22 @@
   </si>
   <si>
     <t>2024-11-15 01:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241115_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백로그란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-15 10:00:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +587,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,21 +983,21 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1035,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1039,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1053,7 +1069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1067,7 +1083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1081,7 +1097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1121,7 +1137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -1155,7 +1171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -1169,7 +1185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
@@ -1183,7 +1199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1197,7 +1213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1211,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -1225,7 +1241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -1239,7 +1255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
@@ -1253,7 +1269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1267,7 +1283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -1281,7 +1297,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -1295,7 +1311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>51</v>
@@ -1309,7 +1325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>52</v>
@@ -1323,7 +1339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>54</v>
@@ -1337,7 +1353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>56</v>
@@ -1351,7 +1367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>55</v>
@@ -1365,7 +1381,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>58</v>
@@ -1379,7 +1395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>57</v>
@@ -1393,7 +1409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>61</v>
@@ -1407,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>60</v>
@@ -1421,7 +1437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>62</v>
@@ -1435,7 +1451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>63</v>
@@ -1449,7 +1465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>64</v>
@@ -1463,7 +1479,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
@@ -1483,7 +1499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
@@ -1503,7 +1519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -1523,7 +1539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>125</v>
       </c>
@@ -1543,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -1563,7 +1579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -1583,7 +1599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>67</v>
@@ -1597,7 +1613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
@@ -1611,7 +1627,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>68</v>
@@ -1625,7 +1641,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>69</v>
@@ -1639,7 +1655,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>72</v>
@@ -1653,7 +1669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>73</v>
@@ -1667,7 +1683,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>74</v>
@@ -1681,7 +1697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>75</v>
@@ -1695,7 +1711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>76</v>
@@ -1709,7 +1725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>33</v>
@@ -1723,7 +1739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>34</v>
@@ -1737,7 +1753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>35</v>
@@ -1751,7 +1767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>36</v>
@@ -1765,7 +1781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1775,7 +1791,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>78</v>
@@ -1792,7 +1808,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>81</v>
@@ -1806,7 +1822,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>82</v>
@@ -1820,7 +1836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>83</v>
@@ -1834,7 +1850,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>84</v>
@@ -1848,7 +1864,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>85</v>
@@ -1862,7 +1878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>86</v>
@@ -1876,7 +1892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>87</v>
@@ -1890,7 +1906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>88</v>
@@ -1904,7 +1920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>101</v>
@@ -1918,7 +1934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>100</v>
@@ -1932,7 +1948,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>103</v>
@@ -1946,7 +1962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>104</v>
@@ -1960,7 +1976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>107</v>
@@ -1974,7 +1990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>106</v>
@@ -1988,7 +2004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>105</v>
@@ -2002,7 +2018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>108</v>
@@ -2016,7 +2032,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>110</v>
@@ -2030,7 +2046,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>89</v>
@@ -2044,7 +2060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>90</v>
@@ -2058,15 +2074,23 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2074,7 +2098,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2082,7 +2106,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2090,7 +2114,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2098,7 +2122,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2106,7 +2130,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2114,7 +2138,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2122,7 +2146,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2130,7 +2154,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2138,7 +2162,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2146,7 +2170,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2154,7 +2178,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2162,7 +2186,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2170,7 +2194,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2178,7 +2202,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E511A-FE7B-4915-9873-720271FC4E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6862F-40F5-4A04-BF72-D2C5CA3DCFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22740" yWindow="2445" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,6 +580,10 @@
   </si>
   <si>
     <t>2024-11-15 10:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,8 +987,8 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2087,7 +2091,9 @@
       <c r="D73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE6862F-40F5-4A04-BF72-D2C5CA3DCFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA0E96E-9F42-4B9D-A06C-FBDE921BD0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>백로그란?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>etc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,6 +580,10 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백로그의 개념과 잘 관리하는 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,8 +987,8 @@
   <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2083,16 +2083,16 @@
         <v>134</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="F73" s="1"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA0E96E-9F42-4B9D-A06C-FBDE921BD0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD756CD-E837-D74D-9623-D19CC692979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="146">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +584,41 @@
   </si>
   <si>
     <t>백로그의 개념과 잘 관리하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커널과 쉘 그리고 운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) 커널, 쉘, 운영체제
+https://namu.wiki/w/%EC%85%B8(%EC%BB%B4%ED%93%A8%ED%84%B0)
+https://namu.wiki/w/%EC%BB%A4%EB%84%90(%EC%9A%B4%EC%98%81%EC%B2%B4%EC%A0%9C)
+https://chatgpt.com/share/672c3d38-ed80-800f-b999-81b561bd0b7a
+및 단어장  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(3) 리눅스에서 root는 #으로, 일반사용자는 $ 로 시작됨
+https://unix.stackexchange.com/questions/291729/why-is-the-default-symbol-for-a-user-shell-and-the-default-symbol-for-a-root
+https://superuser.com/questions/57575/what-is-the-origin-of-the-unix-dollar-prompt/57613#57613  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스에서 root와 일반사용자의 커맨드 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker 실행 메타데이터 옵션 변경 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kkang-joo.tistory.com/70
+https://docs.docker.com/reference/cli/docker/container/update/  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +626,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +739,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -984,24 +1022,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1039,7 +1077,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1073,7 +1111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1087,7 +1125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1101,7 +1139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -1175,7 +1213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -1189,7 +1227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
@@ -1203,7 +1241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1217,7 +1255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1231,38 +1269,38 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="162">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="162">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1273,10 +1311,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1287,10 +1325,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1298,13 +1336,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1312,13 +1350,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1329,10 +1367,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1343,10 +1381,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1354,13 +1392,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1368,13 +1406,13 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1385,10 +1423,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1399,10 +1437,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1413,10 +1451,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1424,13 +1462,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1438,13 +1476,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1455,10 +1493,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1469,10 +1507,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1483,58 +1521,46 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>121</v>
+      <c r="D35" s="7">
+        <v>45585</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>119</v>
@@ -1543,58 +1569,58 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>126</v>
+      <c r="D36" s="7">
+        <v>45586</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>129</v>
+      <c r="D37" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1603,38 +1629,50 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>116</v>
@@ -1645,10 +1683,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>116</v>
@@ -1659,10 +1697,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>116</v>
@@ -1670,13 +1708,13 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>116</v>
@@ -1684,13 +1722,13 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>116</v>
@@ -1701,10 +1739,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>116</v>
@@ -1715,10 +1753,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>116</v>
@@ -1729,10 +1767,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>116</v>
@@ -1740,13 +1778,13 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>116</v>
@@ -1754,13 +1792,13 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>116</v>
@@ -1771,10 +1809,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>116</v>
@@ -1785,51 +1823,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>79</v>
@@ -1837,13 +1872,16 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>79</v>
@@ -1851,13 +1889,13 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>79</v>
@@ -1865,13 +1903,13 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>79</v>
@@ -1879,13 +1917,13 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>79</v>
@@ -1893,13 +1931,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>79</v>
@@ -1907,13 +1945,13 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>79</v>
@@ -1921,13 +1959,13 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>79</v>
@@ -1935,13 +1973,13 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>79</v>
@@ -1949,13 +1987,13 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>79</v>
@@ -1966,10 +2004,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>79</v>
@@ -1977,13 +2015,13 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>79</v>
@@ -1991,13 +2029,13 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>79</v>
@@ -2008,10 +2046,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>79</v>
@@ -2022,10 +2060,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>79</v>
@@ -2033,13 +2071,13 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>79</v>
@@ -2047,13 +2085,13 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>79</v>
@@ -2061,13 +2099,13 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>79</v>
@@ -2075,52 +2113,70 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="54">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2128,7 +2184,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2136,7 +2192,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2144,7 +2200,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2152,7 +2208,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2160,7 +2216,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2168,7 +2224,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2176,7 +2232,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2184,7 +2240,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2192,7 +2248,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2200,7 +2256,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2208,7 +2264,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2216,6 +2272,22 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD756CD-E837-D74D-9623-D19CC692979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F6DE2-3AEA-9441-9333-669E7A9CF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29260" yWindow="11280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="147">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,19 +309,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류 모델 - 개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>분류 모델 - 베이즈 분류기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>분류 모델 - K-최근접이웃 분류기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 모델 - 분류 모델의 종류 (35p)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,6 +611,18 @@
   <si>
     <t xml:space="preserve">https://kkang-joo.tistory.com/70
 https://docs.docker.com/reference/cli/docker/container/update/  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 분류의 개념과 분류 모델의 종류 (35)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-16 15:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241116_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,11 +1026,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1272,7 +1276,7 @@
     <row r="15" spans="1:6" ht="162">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1280,13 +1284,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="162">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1294,7 +1298,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1551,19 +1555,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="7">
         <v>45585</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>66</v>
@@ -1571,19 +1575,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="7">
         <v>45586</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>66</v>
@@ -1591,19 +1595,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>66</v>
@@ -1611,16 +1615,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1631,16 +1635,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1651,16 +1655,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1670,31 +1674,37 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F41" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1703,105 +1713,105 @@
         <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1812,10 +1822,10 @@
     <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1826,10 +1836,10 @@
     <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1839,253 +1849,253 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2094,7 +2104,7 @@
         <v>108</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2105,76 +2115,70 @@
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="E74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="54">
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="54">
+        <v>142</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="8" t="s">
-        <v>145</v>
-      </c>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
@@ -2280,14 +2284,6 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F6DE2-3AEA-9441-9333-669E7A9CF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26FEFC-4A23-F64C-BAF8-74E3A95E797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29260" yWindow="11280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13840" yWindow="7540" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,22 @@
   </si>
   <si>
     <t>20241116_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241116_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 확률분포 기반 분류 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 데이터 기반 분류 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-16 20:30:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,11 +1042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1694,15 +1710,21 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" s="1" t="s">
         <v>69</v>
       </c>
@@ -1710,7 +1732,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>114</v>
@@ -1724,7 +1746,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>114</v>
@@ -1732,13 +1754,13 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>114</v>
@@ -1746,13 +1768,13 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>114</v>
@@ -1766,7 +1788,7 @@
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>114</v>
@@ -1780,7 +1802,7 @@
     <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>114</v>
@@ -1794,7 +1816,7 @@
     <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>114</v>
@@ -1802,13 +1824,13 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>114</v>
@@ -1816,13 +1838,13 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>114</v>
@@ -1836,7 +1858,7 @@
     <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>114</v>
@@ -1849,49 +1871,46 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>77</v>
@@ -1899,13 +1918,16 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>77</v>
@@ -1913,13 +1935,13 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>77</v>
@@ -1927,13 +1949,13 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>77</v>
@@ -1941,13 +1963,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>77</v>
@@ -1955,13 +1977,13 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>77</v>
@@ -1969,13 +1991,13 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>77</v>
@@ -1983,13 +2005,13 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>77</v>
@@ -1997,13 +2019,13 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>77</v>
@@ -2011,13 +2033,13 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>77</v>
@@ -2031,7 +2053,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>77</v>
@@ -2039,13 +2061,13 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>77</v>
@@ -2053,13 +2075,13 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>77</v>
@@ -2073,7 +2095,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>77</v>
@@ -2087,7 +2109,7 @@
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>77</v>
@@ -2095,13 +2117,13 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>77</v>
@@ -2109,13 +2131,13 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>77</v>
@@ -2123,13 +2145,13 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>77</v>
@@ -2137,56 +2159,68 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" ht="54">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="8" t="s">
-        <v>143</v>
+      <c r="F75" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="54">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
@@ -2284,6 +2318,22 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE26FEFC-4A23-F64C-BAF8-74E3A95E797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F4C6F-8DCD-DA48-BC2B-FCFA80C62F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="7540" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,14 +306,6 @@
   </si>
   <si>
     <t>방송통신대 2024-02 머신러닝 시스템 1강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 모델 - 베이즈 분류기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류 모델 - K-최근접이웃 분류기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,11 +626,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류 모델 - 데이터 기반 분류 모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-11-16 20:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241117_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-17 22:20:00 + 0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241117_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-17 22:30:00 + 0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 베이즈 분류기 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - knn과 데이터 기반 분류 모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +699,13 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -744,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1042,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1292,7 +1316,7 @@
     <row r="15" spans="1:6" ht="162">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1300,13 +1324,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="162">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1314,7 +1338,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1571,19 +1595,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="7">
         <v>45585</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>66</v>
@@ -1591,19 +1615,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="7">
         <v>45586</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>66</v>
@@ -1611,19 +1635,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>66</v>
@@ -1631,16 +1655,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1651,16 +1675,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1671,16 +1695,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1691,70 +1715,82 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1763,91 +1799,91 @@
         <v>68</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1858,10 +1894,10 @@
     <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1872,10 +1908,10 @@
     <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1885,253 +1921,253 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2140,7 +2176,7 @@
         <v>106</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -2151,76 +2187,70 @@
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="54">
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="54">
+        <v>140</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
@@ -2326,14 +2356,6 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24F4C6F-8DCD-DA48-BC2B-FCFA80C62F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2330D3A-E99A-42AA-AB6B-C0AB2EF8628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="157">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,19 +313,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회귀 모델 - 개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회귀 모델 - 회귀 모델의 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회귀 모델 - 선형 회귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회귀 모델 - 선형 회귀의 확정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -606,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류 모델 - 분류의 개념과 분류 모델의 종류 (35)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-11-16 15:00:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +643,26 @@
   </si>
   <si>
     <t>분류 모델 - knn과 데이터 기반 분류 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 선형 회귀의 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회귀 모델 - 회귀의 개념과 회귀 모델의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 모델 - 분류의 개념과 분류 모델의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241119_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-19 12:10:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,21 +1077,21 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1129,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1155,7 +1163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1169,7 +1177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1183,7 +1191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -1257,7 +1265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -1271,7 +1279,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
@@ -1285,7 +1293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1299,7 +1307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1313,10 +1321,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="162">
+    <row r="15" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1324,13 +1332,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="162">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1338,10 +1346,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -1355,7 +1363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -1369,7 +1377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>46</v>
@@ -1383,7 +1391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>47</v>
@@ -1397,7 +1405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1411,7 +1419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -1425,7 +1433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -1439,7 +1447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -1453,7 +1461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>54</v>
@@ -1467,7 +1475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>56</v>
@@ -1481,7 +1489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>55</v>
@@ -1495,7 +1503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -1509,7 +1517,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>57</v>
@@ -1523,7 +1531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
@@ -1537,7 +1545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>60</v>
@@ -1551,7 +1559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>62</v>
@@ -1565,7 +1573,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>63</v>
@@ -1579,7 +1587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>64</v>
@@ -1593,78 +1601,78 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="7">
         <v>45585</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="7">
         <v>45586</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1673,18 +1681,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1693,18 +1701,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1713,18 +1721,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1733,18 +1741,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1753,38 +1761,38 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
@@ -1793,83 +1801,89 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1877,13 +1891,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1891,13 +1905,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1905,13 +1919,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1919,332 +1933,332 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="54">
+    <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2252,7 +2266,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2260,7 +2274,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2268,7 +2282,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2276,7 +2290,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2284,7 +2298,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2292,7 +2306,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2300,7 +2314,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2308,7 +2322,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2316,7 +2330,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2324,7 +2338,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2332,7 +2346,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2340,7 +2354,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2348,7 +2362,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2330D3A-E99A-42AA-AB6B-C0AB2EF8628F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28894A-D452-41C1-B736-23A96C7D85B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +663,26 @@
   </si>
   <si>
     <t>2024-11-19 12:10:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindBugs - 자바 소스코드 문제 분석 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241119_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-19 13:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1074,11 +1094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1822,23 +1842,29 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>110</v>
@@ -1852,7 +1878,7 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>110</v>
@@ -1866,7 +1892,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>110</v>
@@ -1880,7 +1906,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>110</v>
@@ -1888,13 +1914,13 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>110</v>
@@ -1908,7 +1934,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>110</v>
@@ -1922,7 +1948,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>110</v>
@@ -1935,35 +1961,32 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>73</v>
@@ -1971,13 +1994,16 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>73</v>
@@ -1985,13 +2011,13 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>73</v>
@@ -1999,13 +2025,13 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>73</v>
@@ -2013,13 +2039,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>73</v>
@@ -2027,13 +2053,13 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>73</v>
@@ -2041,13 +2067,13 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>73</v>
@@ -2055,13 +2081,13 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>73</v>
@@ -2069,13 +2095,13 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>73</v>
@@ -2083,13 +2109,13 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>73</v>
@@ -2103,7 +2129,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>73</v>
@@ -2117,7 +2143,7 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>73</v>
@@ -2125,13 +2151,13 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>73</v>
@@ -2145,7 +2171,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>73</v>
@@ -2159,7 +2185,7 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>73</v>
@@ -2173,7 +2199,7 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>73</v>
@@ -2181,13 +2207,13 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>73</v>
@@ -2195,13 +2221,13 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>73</v>
@@ -2209,13 +2235,13 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>73</v>
@@ -2223,48 +2249,54 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -2370,6 +2402,14 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28894A-D452-41C1-B736-23A96C7D85B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0A954-67FE-49C6-AB68-1384AC93729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="164">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,6 @@
   </si>
   <si>
     <t>방송통신대 2024-02 머신러닝 시스템 2강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회귀 모델 - 회귀 모델의 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,6 +679,18 @@
   </si>
   <si>
     <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-20 13:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241120_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,11 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1352,7 @@
     <row r="15" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1352,13 +1360,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1366,7 +1374,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,19 +1631,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="7">
         <v>45585</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>66</v>
@@ -1643,19 +1651,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="7">
         <v>45586</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>66</v>
@@ -1663,19 +1671,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>66</v>
@@ -1683,16 +1691,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
@@ -1703,16 +1711,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
@@ -1723,16 +1731,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -1743,16 +1751,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
@@ -1763,16 +1771,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1783,19 +1791,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>67</v>
@@ -1803,16 +1811,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
@@ -1823,107 +1831,113 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1934,10 +1948,10 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1948,10 +1962,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1961,43 +1975,43 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,7 +2020,7 @@
         <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2020,7 +2034,7 @@
         <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2034,7 +2048,7 @@
         <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2048,7 +2062,7 @@
         <v>78</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2062,7 +2076,7 @@
         <v>79</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2076,7 +2090,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2090,7 +2104,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2101,10 +2115,10 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2115,29 +2129,29 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,91 +2160,91 @@
         <v>97</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -2244,7 +2258,7 @@
         <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2253,50 +2267,44 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="D75" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -2402,14 +2410,6 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0A954-67FE-49C6-AB68-1384AC93729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3909DD-7585-4DDB-A1DF-225DD961F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="164">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,7 +690,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
+    <t>회귀 모델 - 다변량 선형 회귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1102,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
@@ -1883,7 +1883,7 @@
         <v>161</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>70</v>
@@ -1892,7 +1892,7 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>109</v>
@@ -1906,7 +1906,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>109</v>
@@ -1920,7 +1920,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>109</v>
@@ -1928,13 +1928,13 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>109</v>
@@ -1948,7 +1948,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>109</v>
@@ -1962,7 +1962,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>109</v>
@@ -1975,35 +1975,32 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>72</v>
@@ -2011,13 +2008,16 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>72</v>
@@ -2025,13 +2025,13 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>72</v>
@@ -2039,13 +2039,13 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>72</v>
@@ -2053,13 +2053,13 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>72</v>
@@ -2067,13 +2067,13 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>72</v>
@@ -2081,13 +2081,13 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>72</v>
@@ -2095,13 +2095,13 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>72</v>
@@ -2109,13 +2109,13 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>72</v>
@@ -2123,13 +2123,13 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>72</v>
@@ -2143,7 +2143,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>72</v>
@@ -2157,7 +2157,7 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>72</v>
@@ -2165,13 +2165,13 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>72</v>
@@ -2185,7 +2185,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>72</v>
@@ -2199,7 +2199,7 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>72</v>
@@ -2213,7 +2213,7 @@
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>72</v>
@@ -2221,13 +2221,13 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>72</v>
@@ -2235,13 +2235,13 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>72</v>
@@ -2249,13 +2249,13 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>72</v>
@@ -2263,48 +2263,54 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
@@ -2410,6 +2416,14 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3909DD-7585-4DDB-A1DF-225DD961F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6A057-4354-4510-AF9E-5E33B01E69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="167">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,18 @@
   </si>
   <si>
     <t>회귀 모델 - 다변량 선형 회귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241122_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-22 12:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1106,7 +1118,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1890,15 +1902,21 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>70</v>
       </c>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D6A057-4354-4510-AF9E-5E33B01E69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3181CC6-A813-8242-B379-F0665892E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="170">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,7 +702,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
+    <t>20241123_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-23 14:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241123_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-23 16:30:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,21 +1129,21 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1181,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -1203,7 +1215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -1217,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>27</v>
@@ -1231,7 +1243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -1305,7 +1317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -1319,7 +1331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
@@ -1333,7 +1345,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -1347,7 +1359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -1361,7 +1373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="162">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>132</v>
@@ -1375,7 +1387,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="162">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>135</v>
@@ -1389,7 +1401,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>44</v>
@@ -1403,7 +1415,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -1417,7 +1429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>46</v>
@@ -1431,7 +1443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>47</v>
@@ -1445,7 +1457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1459,7 +1471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -1473,7 +1485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -1487,7 +1499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>52</v>
@@ -1501,7 +1513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>54</v>
@@ -1515,7 +1527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>56</v>
@@ -1529,7 +1541,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>55</v>
@@ -1543,7 +1555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -1557,7 +1569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>57</v>
@@ -1571,7 +1583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
@@ -1585,7 +1597,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>60</v>
@@ -1599,7 +1611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>62</v>
@@ -1613,7 +1625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>63</v>
@@ -1627,7 +1639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>64</v>
@@ -1641,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>117</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -1721,7 +1733,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>124</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>141</v>
       </c>
@@ -1801,7 +1813,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>144</v>
       </c>
@@ -1821,7 +1833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
         <v>147</v>
       </c>
@@ -1841,7 +1853,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
         <v>154</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
         <v>157</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>162</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>164</v>
       </c>
@@ -1915,41 +1927,53 @@
         <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>33</v>
@@ -1963,7 +1987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>34</v>
@@ -1977,7 +2001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>35</v>
@@ -1991,7 +2015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>36</v>
@@ -2005,7 +2029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2015,7 +2039,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>71</v>
@@ -2032,7 +2056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>74</v>
@@ -2046,7 +2070,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>75</v>
@@ -2060,7 +2084,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>76</v>
@@ -2074,7 +2098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>77</v>
@@ -2088,7 +2112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>78</v>
@@ -2102,7 +2126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>79</v>
@@ -2116,7 +2140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>80</v>
@@ -2130,7 +2154,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>81</v>
@@ -2144,7 +2168,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>94</v>
@@ -2158,7 +2182,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>93</v>
@@ -2172,7 +2196,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>96</v>
@@ -2186,7 +2210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>97</v>
@@ -2200,7 +2224,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>100</v>
@@ -2214,7 +2238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>99</v>
@@ -2228,7 +2252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>98</v>
@@ -2242,7 +2266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>101</v>
@@ -2256,7 +2280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>103</v>
@@ -2270,7 +2294,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>82</v>
@@ -2284,7 +2308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>83</v>
@@ -2298,7 +2322,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>127</v>
       </c>
@@ -2316,7 +2340,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="54">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>136</v>
@@ -2330,7 +2354,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2338,7 +2362,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2346,7 +2370,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2354,7 +2378,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2362,7 +2386,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2370,7 +2394,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2378,7 +2402,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2386,7 +2410,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2394,7 +2418,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2402,7 +2426,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2410,7 +2434,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2418,7 +2442,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2426,7 +2450,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2434,7 +2458,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3181CC6-A813-8242-B379-F0665892E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76FE926-656B-B044-A4A7-CF821AF216B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
   </si>
   <si>
     <t>linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LINUX의 특징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,6 +711,26 @@
   </si>
   <si>
     <t>2024-11-23 16:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINUX의 개요와 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241123_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-23 17:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241123_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-23 17:30:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1146,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1160,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1183,7 +1199,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1192,47 +1208,59 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
@@ -1240,7 +1268,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1260,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1280,7 +1308,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1300,13 +1328,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1314,13 +1342,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1328,13 +1356,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1342,13 +1370,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1356,13 +1384,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1370,13 +1398,13 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="162">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1384,13 +1412,13 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="162">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1398,13 +1426,13 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1412,13 +1440,13 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -1426,13 +1454,13 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1440,13 +1468,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1454,13 +1482,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1468,13 +1496,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1482,13 +1510,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1496,13 +1524,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1510,13 +1538,13 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1524,13 +1552,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1538,13 +1566,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1552,13 +1580,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1566,13 +1594,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1580,13 +1608,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1594,13 +1622,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1608,13 +1636,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1622,13 +1650,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1636,13 +1664,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1650,383 +1678,383 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="7">
         <v>45585</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="7">
         <v>45586</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2036,322 +2064,322 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="54">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:6">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76FE926-656B-B044-A4A7-CF821AF216B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92674A2C-F9AF-0847-A35C-CDB8B1DC69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1146,7 +1146,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92674A2C-F9AF-0847-A35C-CDB8B1DC69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47C6C8-A905-0C4F-9B14-BA951C042B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25040" yWindow="4660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오픈소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +182,6 @@
   </si>
   <si>
     <t>방송통신대 2024-02 머신러닝 시스템 4강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셸의 개념과 기본적인 사용법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -731,6 +723,34 @@
   </si>
   <si>
     <t>2024-11-23 17:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈소스와 오픈소스 라이선스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 01:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 명령어의 기본 구조와 사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 주요 내장 명령어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,11 +1162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1176,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1199,7 +1219,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -1208,38 +1228,38 @@
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
@@ -1248,27 +1268,33 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1288,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1308,7 +1334,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1328,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1342,13 +1368,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1356,13 +1382,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -1370,13 +1396,13 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -1384,13 +1410,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1398,41 +1424,41 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="162">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="162">
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="8" t="s">
-        <v>133</v>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -1440,41 +1466,41 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="162">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
+      <c r="F19" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1482,13 +1508,13 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1496,13 +1522,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1510,13 +1536,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1524,13 +1550,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1538,13 +1564,13 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1552,13 +1578,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1566,13 +1592,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1580,13 +1606,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1594,13 +1620,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1608,13 +1634,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1622,13 +1648,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1636,13 +1662,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1650,13 +1676,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1664,13 +1690,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1678,733 +1704,751 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="D38" s="7">
+        <v>45585</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="D39" s="7">
+        <v>45586</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>145</v>
+        <v>123</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>154</v>
+        <v>106</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
+        <v>142</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B52" s="1" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B53" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" ht="54">
+        <v>69</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="8" t="s">
-        <v>137</v>
+      <c r="F77" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="54">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1"/>
@@ -2494,6 +2538,30 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E47C6C8-A905-0C4F-9B14-BA951C042B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECB9F7-797E-7546-988E-9B22331D3E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25040" yWindow="4660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18600" yWindow="7800" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="199">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-11-06 23:50:00 + 0900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNIX와 LINUX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,14 +186,6 @@
   </si>
   <si>
     <t>셸 명령 히스토리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셸 명령에서의 특수문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셸 변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -738,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>셸의 개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>셸의 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,7 +734,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>셸 주요 내장 명령어</t>
+    <t>나중에 칼리 리눅스도 다뤄보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸의 개념과 기본 사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-06 23:50:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 12:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 12:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 14:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 명령어와 관련된 명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 14:40:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 15:10:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령 행 완성 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 15:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 15:50:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 명령에서의 특수문자와 명령의 연결과 확장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 16:40:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 변수와 환경 변수 원리와 활용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 17:20:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +962,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1162,11 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1179,7 +1260,7 @@
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1196,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1217,87 +1298,90 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1314,10 +1398,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1334,10 +1418,10 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,145 +1432,199 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="162">
-      <c r="A18" s="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="8" t="s">
-        <v>130</v>
+      <c r="D18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1494,27 +1632,27 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="162">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>45</v>
+      <c r="F20" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1522,13 +1660,13 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1536,13 +1674,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1550,13 +1688,13 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1564,13 +1702,13 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1578,13 +1716,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1592,13 +1730,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1606,13 +1744,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1620,13 +1758,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1634,13 +1772,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1648,13 +1786,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1662,13 +1800,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1676,13 +1814,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1690,13 +1828,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1704,13 +1842,13 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1718,13 +1856,13 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1732,13 +1870,13 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1746,717 +1884,723 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="7">
+        <v>45586</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>143</v>
+        <v>103</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>139</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" ht="54">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" ht="54">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1"/>
@@ -2562,6 +2706,14 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECB9F7-797E-7546-988E-9B22331D3E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C7DAC-9495-9547-9D00-46D9DFE38E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="7800" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22740" yWindow="5340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="210">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,14 +191,6 @@
   </si>
   <si>
     <t>방송통신대 2024-02 UNIX 시스템 3강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 파일 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 파일 및 디렉터리 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -831,6 +824,58 @@
   </si>
   <si>
     <t>20241124_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 시스템 탐색 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 및 디렉터리 관리 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 18:16:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 19:47:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 심볼릭 링크와 하드 링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 20:31:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 20:46:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 21:03:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_015</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +1007,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -978,6 +1022,625 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD31D4D-BB70-2490-E0AF-1D86F121691A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870200" y="2197100"/>
+          <a:ext cx="3784600" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" kern="1200"/>
+            <a:t>-rwxr-xr--</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="7200" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23961E50-50D2-3747-B7C0-A67B4923BBD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926080" y="3177540"/>
+          <a:ext cx="264160" cy="73660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50ACDA13-5598-C146-90E5-28B1B2C14F1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3251200" y="3175000"/>
+          <a:ext cx="1341120" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4147B821-2EDB-EA48-8E3D-D987CFB6328F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632960" y="3180080"/>
+          <a:ext cx="965200" cy="81280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96AF8D7D-8CA9-7E4C-B55B-A8434AEA2FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5628640" y="3180080"/>
+          <a:ext cx="812800" cy="81280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED5D313-2D2D-344A-8339-F6F1B505725B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3068320" y="3261360"/>
+          <a:ext cx="1483360" cy="995680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>소유자</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(u)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>user</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB030B4B-3EFE-3140-8C66-E449181B61D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4531360" y="3261360"/>
+          <a:ext cx="1097280" cy="1076960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>그룹</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(g)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>group</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B68268-A005-1047-AC6C-1742C6F3629C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5699760" y="3271520"/>
+          <a:ext cx="1097280" cy="1087120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>기타</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(o)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>other</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2400" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,11 +1906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1320,16 +1983,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1340,7 +2003,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -1349,7 +2012,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1357,22 +2020,22 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>174</v>
+      <c r="G5" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -1432,7 +2095,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1443,16 +2106,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1463,16 +2126,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -1483,16 +2146,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -1503,7 +2166,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -1512,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -1523,16 +2186,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1543,7 +2206,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -1552,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1563,16 +2226,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1583,16 +2246,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -1603,16 +2266,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
@@ -1624,7 +2287,7 @@
     <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -1632,13 +2295,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="162">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1646,83 +2309,113 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1730,13 +2423,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
@@ -1744,13 +2437,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
@@ -1758,13 +2451,13 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
@@ -1772,13 +2465,13 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
@@ -1786,13 +2479,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
@@ -1800,13 +2493,13 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -1814,13 +2507,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1828,13 +2521,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1842,13 +2535,13 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1856,13 +2549,13 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1870,13 +2563,13 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1884,13 +2577,13 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -1898,350 +2591,350 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="7">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="D41" s="7">
+        <v>45586</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>137</v>
+        <v>101</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>140</v>
+        <v>101</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2252,10 +2945,10 @@
     <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2266,10 +2959,10 @@
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2279,336 +2972,342 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="54">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="54">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1"/>
@@ -2714,9 +3413,33 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEA981-5063-FA43-8603-9FE820B29075}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41C7DAC-9495-9547-9D00-46D9DFE38E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E988D-3DA2-7B4E-87FE-2B35DF968232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22740" yWindow="5340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21800" yWindow="5340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="224">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,18 +207,6 @@
   </si>
   <si>
     <t>리눅스의 부팅 과정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 초기화 데몬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemd, 유닛, 시스템 서비스의 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 시스템의 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -876,6 +864,74 @@
   </si>
   <si>
     <t>20241124_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 초기화 데몬과 systemd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 23:03:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 23:31:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 systemd와 유닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241124_018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-24 23:54:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 타깃과 런레벨 - 부팅 모드 선택하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-25 01:27:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241125_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 서비스의 관리 systemctl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241125_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-25 01:05:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 시스템의 전원 관리와 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-25 01:26:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241125_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,11 +1962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1983,16 +2039,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -2003,7 +2059,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -2012,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -2021,21 +2077,21 @@
         <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -2095,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -2106,16 +2162,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -2126,16 +2182,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -2146,16 +2202,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -2166,7 +2222,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -2175,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -2186,16 +2242,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -2206,7 +2262,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2215,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -2226,16 +2282,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -2246,16 +2302,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -2266,16 +2322,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
@@ -2287,7 +2343,7 @@
     <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -2295,13 +2351,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="162">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -2309,21 +2365,21 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
@@ -2334,16 +2390,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -2354,7 +2410,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
@@ -2363,7 +2419,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
@@ -2374,16 +2430,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -2394,7 +2450,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -2403,7 +2459,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
@@ -2413,93 +2469,129 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -2507,13 +2599,13 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -2521,13 +2613,13 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -2535,13 +2627,13 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -2549,13 +2641,13 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -2563,13 +2655,13 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -2577,13 +2669,13 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -2591,13 +2683,13 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -2605,364 +2697,364 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="7">
+        <v>45586</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>135</v>
+        <v>98</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
+        <v>134</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2973,10 +3065,10 @@
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2986,344 +3078,356 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="54">
+        <v>61</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="8" t="s">
-        <v>130</v>
+      <c r="F82" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="54">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1"/>
@@ -3420,6 +3524,22 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E988D-3DA2-7B4E-87FE-2B35DF968232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9F602-3951-FE41-A2A9-36AFF19257C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21800" yWindow="5340" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27360" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,23 +214,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스 사용자 계정과 파일의 접근 권한 (앞쪽 뒤쪽 혼합)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리눅스 su, sudo 명령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 사용자 및 그룹 계정 관리 파일 (중간중간)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 그룹 계정의 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 사용자 계정 생성과 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -932,6 +916,66 @@
   </si>
   <si>
     <t>20241125_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 사용자 계정 관리 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 그룹 계정 생성과 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 사용자 계정 생성과 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 사용자와 그룹의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 01:23:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 01:57:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 02:44:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 그룹 계정 관리 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 02:54:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 02:59:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1107,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1962,11 +2007,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2039,16 +2084,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -2059,7 +2104,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -2068,7 +2113,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -2077,21 +2122,21 @@
         <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -2151,7 +2196,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -2162,16 +2207,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -2182,16 +2227,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -2202,16 +2247,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -2222,7 +2267,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -2231,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -2242,16 +2287,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -2262,7 +2307,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2271,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -2282,16 +2327,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -2302,16 +2347,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -2322,16 +2367,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
@@ -2343,7 +2388,7 @@
     <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -2351,13 +2396,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="162">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -2365,21 +2410,21 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
@@ -2390,16 +2435,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -2410,7 +2455,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
@@ -2419,7 +2464,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
@@ -2430,16 +2475,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -2450,7 +2495,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -2459,7 +2504,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
@@ -2470,7 +2515,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
@@ -2479,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -2490,16 +2535,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
@@ -2510,16 +2555,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -2530,16 +2575,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
@@ -2550,16 +2595,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
@@ -2570,16 +2615,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -2589,79 +2634,109 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -2669,13 +2744,15 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>2024</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -2683,13 +2760,13 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -2697,13 +2774,13 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -2711,13 +2788,13 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -2725,350 +2802,350 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D43" s="7">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="D44" s="7">
+        <v>45586</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3079,10 +3156,10 @@
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3093,10 +3170,10 @@
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3106,336 +3183,342 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="54">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C84" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" ht="54">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1"/>
@@ -3540,6 +3623,14 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3550,14 +3641,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEA981-5063-FA43-8603-9FE820B29075}">
-  <dimension ref="A1"/>
+  <dimension ref="B28:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData/>
+  <sheetData>
+    <row r="28" spans="2:4">
+      <c r="B28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9F602-3951-FE41-A2A9-36AFF19257C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F676127-37E9-46DA-B222-498F2CE88866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="237">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,12 +978,20 @@
     <t>2024-11-26 02:59:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>20241126_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 13:14:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,21 +2018,21 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2044,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2070,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
@@ -2125,7 +2133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>161</v>
       </c>
@@ -2145,7 +2153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2165,7 +2173,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2185,7 +2193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2205,7 +2213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -2225,7 +2233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>170</v>
       </c>
@@ -2245,7 +2253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>173</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
@@ -2285,7 +2293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>177</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
@@ -2345,7 +2353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>186</v>
       </c>
@@ -2365,7 +2373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>189</v>
       </c>
@@ -2385,7 +2393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="162">
+    <row r="19" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>117</v>
@@ -2399,7 +2407,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="162">
+    <row r="20" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>120</v>
@@ -2413,7 +2421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
@@ -2433,7 +2441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>194</v>
       </c>
@@ -2453,7 +2461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
@@ -2473,7 +2481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>199</v>
       </c>
@@ -2493,7 +2501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>202</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>203</v>
       </c>
@@ -2533,7 +2541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>207</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>209</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>213</v>
       </c>
@@ -2593,7 +2601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>215</v>
       </c>
@@ -2613,7 +2621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>219</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>224</v>
       </c>
@@ -2653,7 +2661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>226</v>
       </c>
@@ -2673,7 +2681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>229</v>
       </c>
@@ -2693,7 +2701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>231</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>233</v>
       </c>
@@ -2733,21 +2741,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2024</v>
       </c>
@@ -2763,7 +2777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -2777,7 +2791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>47</v>
@@ -2791,7 +2805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>48</v>
@@ -2805,7 +2819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>49</v>
@@ -2819,7 +2833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -2859,7 +2873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>100</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
@@ -2939,7 +2953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
@@ -2959,7 +2973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>132</v>
       </c>
@@ -3019,7 +3033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>139</v>
       </c>
@@ -3039,7 +3053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>142</v>
       </c>
@@ -3059,7 +3073,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>147</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>149</v>
       </c>
@@ -3099,7 +3113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>151</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>153</v>
       </c>
@@ -3139,7 +3153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>30</v>
@@ -3153,7 +3167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>31</v>
@@ -3167,7 +3181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>32</v>
@@ -3181,7 +3195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>33</v>
@@ -3195,7 +3209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3205,7 +3219,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>56</v>
@@ -3222,7 +3236,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>59</v>
@@ -3236,7 +3250,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>60</v>
@@ -3250,7 +3264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>61</v>
@@ -3264,7 +3278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>62</v>
@@ -3278,7 +3292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>63</v>
@@ -3292,7 +3306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>64</v>
@@ -3306,7 +3320,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>65</v>
@@ -3320,7 +3334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>66</v>
@@ -3334,7 +3348,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>79</v>
@@ -3348,7 +3362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>78</v>
@@ -3362,7 +3376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>81</v>
@@ -3376,7 +3390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>82</v>
@@ -3390,7 +3404,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>85</v>
@@ -3404,7 +3418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>84</v>
@@ -3418,7 +3432,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>83</v>
@@ -3432,7 +3446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>86</v>
@@ -3446,7 +3460,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>88</v>
@@ -3460,7 +3474,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>67</v>
@@ -3474,7 +3488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>68</v>
@@ -3488,7 +3502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>112</v>
       </c>
@@ -3506,7 +3520,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="54">
+    <row r="85" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>121</v>
@@ -3520,7 +3534,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3528,7 +3542,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3536,7 +3550,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3544,7 +3558,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3552,7 +3566,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3560,7 +3574,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3568,7 +3582,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3576,7 +3590,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3584,7 +3598,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3592,7 +3606,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3600,7 +3614,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3608,7 +3622,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3616,7 +3630,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3624,7 +3638,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3647,9 +3661,9 @@
       <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9F602-3951-FE41-A2A9-36AFF19257C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540599AB-F151-7548-8ADA-79B6B1EC9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27360" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="238">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,14 +219,6 @@
   </si>
   <si>
     <t>방송통신대 2024-02 UNIX 시스템 6강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스 텍스트 편집기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스에서 텍스트 파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -976,6 +968,26 @@
   </si>
   <si>
     <t>2024-11-26 02:59:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 13:05:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 텍스트 편집기 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241126_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-26 23:21:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2007,11 +2019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2084,16 +2096,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -2104,7 +2116,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -2113,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -2122,21 +2134,21 @@
         <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -2196,7 +2208,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -2207,16 +2219,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -2227,16 +2239,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -2247,16 +2259,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -2267,7 +2279,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -2276,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -2287,16 +2299,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -2307,7 +2319,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -2316,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -2327,16 +2339,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -2347,16 +2359,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -2367,16 +2379,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
@@ -2388,7 +2400,7 @@
     <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -2396,13 +2408,13 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="162">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -2410,21 +2422,21 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>14</v>
@@ -2435,16 +2447,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -2455,7 +2467,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>38</v>
@@ -2464,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>14</v>
@@ -2475,16 +2487,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -2495,7 +2507,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -2504,7 +2516,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>14</v>
@@ -2515,7 +2527,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>41</v>
@@ -2524,7 +2536,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -2535,16 +2547,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
@@ -2555,16 +2567,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -2575,16 +2587,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
@@ -2595,16 +2607,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
@@ -2615,16 +2627,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -2635,16 +2647,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
@@ -2655,16 +2667,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -2675,16 +2687,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
@@ -2695,16 +2707,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>14</v>
@@ -2715,16 +2727,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
@@ -2734,33 +2746,43 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>2024</v>
+      <c r="A38" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2772,15 +2794,17 @@
         <v>11</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -2788,13 +2812,13 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -2802,261 +2826,267 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="7">
+        <v>45586</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="7">
-        <v>45586</v>
+        <v>92</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>14</v>
+      <c r="E50" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3064,19 +3094,19 @@
         <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3084,10 +3114,10 @@
         <v>149</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>150</v>
@@ -3096,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3104,10 +3134,10 @@
         <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>152</v>
@@ -3116,36 +3146,30 @@
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -3156,10 +3180,10 @@
     <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3170,10 +3194,10 @@
     <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3183,253 +3207,253 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3438,7 +3462,7 @@
         <v>86</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3449,76 +3473,70 @@
     <row r="81" spans="1:6">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="E83" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" ht="54">
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" ht="54">
+        <v>120</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1"/>
@@ -3623,14 +3641,6 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540599AB-F151-7548-8ADA-79B6B1EC9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1420B49-5355-294B-BD5E-9F70A4F6CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="251">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리눅스 표준 디렉토리 (파일 시스템 계층구조 표준 FHS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-11-05 18:00:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
   </si>
   <si>
     <t>UNIX와 LINUX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -988,6 +976,70 @@
   </si>
   <si>
     <t>2024-11-26 23:21:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 관리의 개념과 버전 관리 소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 설치하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 작업 디렉터리, 스테이지 영역, 깃 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 작업 디렉터리 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 파일의 상태 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 기본 명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add, commit 해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git HEAD 의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout 체크아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 파일 및 수정 이력 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux, SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 13강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241128_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2019,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2053,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2076,85 +2128,85 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2162,1485 +2214,1705 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="162">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="162">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>124</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>244</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="7">
+        <v>45586</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F62" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B63" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F64" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B65" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F65" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F66" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="F68" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F70" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F71" s="1" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F72" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F73" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F75" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" ht="54">
+        <v>52</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="F85" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="F90" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="F92" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="F95" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" ht="54">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1420B49-5355-294B-BD5E-9F70A4F6CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59004096-A0F6-C541-82DE-7DB5F7572219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="259">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,14 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git HEAD 의 개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git 브랜치의 개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git checkout 체크아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,7 +1031,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20241128_001</t>
+    <t>git 명령어 모아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 개념과 명령어 (13, 14장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 커밋의 개념과 명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git HEAD 의 개념과 명령어 (13, 14장)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 병합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 14강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 병합 충돌과 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chatgpt.com/share/6748a398-6e94-800f-a5a5-465be2d5f31c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 02:29:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1079,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1121,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1149,10 +1189,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,9 +1213,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2071,11 +2114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2134,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -2154,7 +2197,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>152</v>
@@ -2174,7 +2217,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>154</v>
@@ -2217,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -2237,7 +2280,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -2277,7 +2320,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>164</v>
@@ -2297,7 +2340,7 @@
         <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>166</v>
@@ -2317,7 +2360,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>167</v>
@@ -2337,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>170</v>
@@ -2357,7 +2400,7 @@
         <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>173</v>
@@ -2377,7 +2420,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>176</v>
@@ -2397,7 +2440,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>177</v>
@@ -2417,7 +2460,7 @@
         <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>180</v>
@@ -2437,7 +2480,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>183</v>
@@ -2455,7 +2498,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2469,7 +2512,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2485,7 +2528,7 @@
         <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>188</v>
@@ -2505,7 +2548,7 @@
         <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>190</v>
@@ -2525,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>193</v>
@@ -2545,7 +2588,7 @@
         <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>195</v>
@@ -2565,7 +2608,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>196</v>
@@ -2585,7 +2628,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>200</v>
@@ -2605,7 +2648,7 @@
         <v>199</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>201</v>
@@ -2625,7 +2668,7 @@
         <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>205</v>
@@ -2645,7 +2688,7 @@
         <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>207</v>
@@ -2665,7 +2708,7 @@
         <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>211</v>
@@ -2685,7 +2728,7 @@
         <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>213</v>
@@ -2705,7 +2748,7 @@
         <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>220</v>
@@ -2725,7 +2768,7 @@
         <v>215</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>222</v>
@@ -2745,7 +2788,7 @@
         <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>223</v>
@@ -2765,7 +2808,7 @@
         <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>227</v>
@@ -2785,7 +2828,7 @@
         <v>218</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>229</v>
@@ -2805,7 +2848,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>231</v>
@@ -2825,7 +2868,7 @@
         <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>234</v>
@@ -2843,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -2859,7 +2902,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2873,7 +2916,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2931,20 +2974,22 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2953,12 +2998,12 @@
         <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2967,12 +3012,12 @@
         <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2981,12 +3026,12 @@
         <v>240</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2995,12 +3040,12 @@
         <v>237</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3009,12 +3054,12 @@
         <v>239</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3023,12 +3068,12 @@
         <v>241</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3037,575 +3082,548 @@
         <v>242</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>126</v>
+      <c r="D68" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>128</v>
+      <c r="D69" s="7">
+        <v>45586</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>135</v>
+      <c r="D70" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>149</v>
+      <c r="D75" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F77" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F78" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F80" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F81" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B82" s="1" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F82" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B83" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F83" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>52</v>
@@ -3613,13 +3631,16 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>52</v>
@@ -3627,13 +3648,13 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>52</v>
@@ -3641,13 +3662,13 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>52</v>
@@ -3655,13 +3676,13 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>52</v>
@@ -3669,13 +3690,13 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>52</v>
@@ -3683,13 +3704,13 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>52</v>
@@ -3697,13 +3718,13 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>52</v>
@@ -3711,13 +3732,13 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>52</v>
@@ -3725,13 +3746,13 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>52</v>
@@ -3739,13 +3760,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>52</v>
@@ -3753,13 +3774,13 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>52</v>
@@ -3767,104 +3788,152 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" ht="54">
+        <v>52</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="8" t="s">
-        <v>118</v>
+      <c r="F102" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="54">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1"/>
@@ -3914,9 +3983,76 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E57" r:id="rId1" xr:uid="{807CDBFB-D59C-0945-8143-314B4AADD73C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59004096-A0F6-C541-82DE-7DB5F7572219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96851455-80C1-0D40-A675-8FBA937EB865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="265">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1072,6 +1072,30 @@
   </si>
   <si>
     <t>SCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 12:54:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 13:18:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 13:32:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1848,6 +1872,154 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C71C0EB-7EAB-D94A-9E8A-7A2A1112A608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="6261100"/>
+          <a:ext cx="9461500" cy="1308100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" b="1" kern="1200"/>
+            <a:t>V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" kern="1200"/>
+            <a:t>ersion </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" b="1" kern="1200"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" kern="1200"/>
+            <a:t>ontrol </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" b="1" kern="1200"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="7200" kern="1200"/>
+            <a:t>ystem</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="7200" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10" descr="Git">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7495A72A-0DB3-E964-2C62-0333077CD0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4419600" y="9969500"/>
+          <a:ext cx="2794000" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2118,7 +2290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2993,43 +3165,61 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>247</v>
       </c>
@@ -4061,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEA981-5063-FA43-8603-9FE820B29075}">
   <dimension ref="B28:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96851455-80C1-0D40-A675-8FBA937EB865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D04FE0-A3D3-1A4B-BB42-9114FDCA7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="272">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -987,18 +987,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 설치하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git 작업 디렉터리, 스테이지 영역, 깃 저장소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 작업 디렉터리 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git 파일의 상태 변화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1019,10 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linux, SCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1071,10 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20241129_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1096,6 +1080,50 @@
   </si>
   <si>
     <t>20241129_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 설치와 환경변수 설정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 14:03:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 14:37:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 깃 저장소 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git status… 언제 기록하지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 15:00:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1266,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2286,11 +2315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2349,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -2369,7 +2398,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>152</v>
@@ -2389,7 +2418,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>154</v>
@@ -2432,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -2452,7 +2481,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -2492,7 +2521,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>164</v>
@@ -2512,7 +2541,7 @@
         <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>166</v>
@@ -2532,7 +2561,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>167</v>
@@ -2552,7 +2581,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>170</v>
@@ -2572,7 +2601,7 @@
         <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>173</v>
@@ -2592,7 +2621,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>176</v>
@@ -2612,7 +2641,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>177</v>
@@ -2632,7 +2661,7 @@
         <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>180</v>
@@ -2652,7 +2681,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>183</v>
@@ -2670,7 +2699,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2684,7 +2713,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2700,7 +2729,7 @@
         <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>188</v>
@@ -2720,7 +2749,7 @@
         <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>190</v>
@@ -2740,7 +2769,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>193</v>
@@ -2760,7 +2789,7 @@
         <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>195</v>
@@ -2780,7 +2809,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>196</v>
@@ -2800,7 +2829,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>200</v>
@@ -2820,7 +2849,7 @@
         <v>199</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>201</v>
@@ -2840,7 +2869,7 @@
         <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>205</v>
@@ -2860,7 +2889,7 @@
         <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>207</v>
@@ -2880,7 +2909,7 @@
         <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>211</v>
@@ -2900,7 +2929,7 @@
         <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>213</v>
@@ -2920,7 +2949,7 @@
         <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>220</v>
@@ -2940,7 +2969,7 @@
         <v>215</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>222</v>
@@ -2960,7 +2989,7 @@
         <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>223</v>
@@ -2980,7 +3009,7 @@
         <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>227</v>
@@ -3000,7 +3029,7 @@
         <v>218</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>229</v>
@@ -3020,7 +3049,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>231</v>
@@ -3040,7 +3069,7 @@
         <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>234</v>
@@ -3058,7 +3087,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -3074,7 +3103,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3088,7 +3117,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3146,249 +3175,277 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F53" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="B54" s="1" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+        <v>264</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>244</v>
+      </c>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>244</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="11" t="s">
-        <v>255</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="11" t="s">
+        <v>252</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3414,48 +3471,36 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="7">
-        <v>45586</v>
+        <v>45585</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>92</v>
@@ -3466,16 +3511,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>94</v>
+      <c r="D70" s="7">
+        <v>45586</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>92</v>
@@ -3486,19 +3531,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>99</v>
+      <c r="D71" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>46</v>
@@ -3506,16 +3551,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -3526,16 +3571,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>13</v>
@@ -3546,36 +3591,36 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>123</v>
+      <c r="D75" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -3586,19 +3631,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>126</v>
+      <c r="D76" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>47</v>
@@ -3606,19 +3651,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>47</v>
@@ -3626,76 +3671,76 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
@@ -3706,16 +3751,16 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -3726,16 +3771,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
@@ -3745,23 +3790,29 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F84" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>89</v>
@@ -3775,7 +3826,7 @@
     <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
@@ -3789,7 +3840,7 @@
     <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>89</v>
@@ -3802,35 +3853,32 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>52</v>
@@ -3838,13 +3886,16 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>52</v>
@@ -3852,13 +3903,13 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>52</v>
@@ -3866,13 +3917,13 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>52</v>
@@ -3880,13 +3931,13 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>52</v>
@@ -3894,13 +3945,13 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>52</v>
@@ -3908,13 +3959,13 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>52</v>
@@ -3922,13 +3973,13 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>52</v>
@@ -3936,13 +3987,13 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>52</v>
@@ -3950,13 +4001,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>52</v>
@@ -3970,7 +4021,7 @@
     <row r="100" spans="1:6">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>52</v>
@@ -3984,7 +4035,7 @@
     <row r="101" spans="1:6">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>52</v>
@@ -3992,13 +4043,13 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>52</v>
@@ -4012,7 +4063,7 @@
     <row r="103" spans="1:6">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>52</v>
@@ -4026,7 +4077,7 @@
     <row r="104" spans="1:6">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>52</v>
@@ -4040,7 +4091,7 @@
     <row r="105" spans="1:6">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>52</v>
@@ -4048,13 +4099,13 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>52</v>
@@ -4062,13 +4113,13 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>52</v>
@@ -4076,13 +4127,13 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>52</v>
@@ -4090,48 +4141,54 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" ht="54">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" ht="54">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1"/>
@@ -4237,11 +4294,19 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E57" r:id="rId1" xr:uid="{807CDBFB-D59C-0945-8143-314B4AADD73C}"/>
+    <hyperlink ref="E58" r:id="rId1" xr:uid="{807CDBFB-D59C-0945-8143-314B4AADD73C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D04FE0-A3D3-1A4B-BB42-9114FDCA7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7715FF-77AE-8246-A002-1CB1022015BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="277">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1115,15 +1115,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git status… 언제 기록하지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-11-29 15:00:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20241129_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 16:37:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 17:06:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 17:28:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,7 +1265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1266,7 +1286,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2319,7 +2338,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3193,7 +3212,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>255</v>
       </c>
@@ -3213,7 +3232,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>258</v>
       </c>
@@ -3233,7 +3252,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>260</v>
       </c>
@@ -3253,7 +3272,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>263</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>267</v>
       </c>
@@ -3293,9 +3312,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>268</v>
@@ -3304,7 +3323,7 @@
         <v>264</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -3312,54 +3331,68 @@
       <c r="F54" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F55" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>246</v>
@@ -3375,7 +3408,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>248</v>
@@ -3389,7 +3422,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>241</v>
@@ -3403,7 +3436,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>242</v>
@@ -3417,7 +3450,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>249</v>
@@ -3431,7 +3464,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>251</v>
@@ -3445,7 +3478,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7715FF-77AE-8246-A002-1CB1022015BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F90EA-8FCE-8C45-B01F-CDD89B0AF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21800" yWindow="4540" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14120" yWindow="4600" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="280">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1023,18 +1023,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 브랜치의 개념과 명령어 (13, 14장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git 커밋의 개념과 명령어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git HEAD 의 개념과 명령어 (13, 14장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git 브랜치의 병합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1047,10 +1039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://chatgpt.com/share/6748a398-6e94-800f-a5a5-465be2d5f31c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20241129_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,6 +1132,30 @@
   </si>
   <si>
     <t>2024-11-29 17:28:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git HEAD 의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 18:19:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-29 18:46:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1193,14 +1205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1261,11 +1265,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,11 +1288,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2338,7 +2339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3194,16 +3195,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -3214,16 +3215,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -3234,16 +3235,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -3254,16 +3255,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -3274,16 +3275,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3294,16 +3295,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3314,16 +3315,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -3334,16 +3335,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -3354,16 +3355,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -3374,16 +3375,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -3393,31 +3394,41 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="11" t="s">
-        <v>252</v>
+        <v>261</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>244</v>
       </c>
@@ -3428,7 +3439,7 @@
         <v>241</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -3442,7 +3453,7 @@
         <v>242</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -3453,29 +3464,29 @@
     <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3516,7 +3527,7 @@
         <v>245</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -4338,9 +4349,6 @@
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E58" r:id="rId1" xr:uid="{807CDBFB-D59C-0945-8143-314B4AADD73C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F90EA-8FCE-8C45-B01F-CDD89B0AF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104FAEFE-D196-3D47-9D35-FC6B422D3A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14120" yWindow="4600" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="293">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,14 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git checkout 체크아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git 파일 및 수정 이력 비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,14 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 커밋의 개념과 명령어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git 브랜치의 병합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방송통신대 2024-02 UNIX 시스템 14강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1156,6 +1140,74 @@
   </si>
   <si>
     <t>20241129_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 00:17:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241129_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff 파일 및 수정 이력 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 커밋의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 01:03:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 병합 (앞쪽 병합 여부 확인 명령 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch - 브랜치 생성과 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git switch - 브랜치 및 커밋 이동 그리고 브랜치 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout 체크아웃 HEAD의 이동 및 브랜치 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 02:56:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 03:13:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치와 관련된 명령어 교통정리, 그리고 전망 살펴보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 03:29:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2335,11 +2387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2398,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -2418,7 +2470,7 @@
         <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>152</v>
@@ -2438,7 +2490,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>154</v>
@@ -2481,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -2501,7 +2553,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -2541,7 +2593,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>164</v>
@@ -2561,7 +2613,7 @@
         <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>166</v>
@@ -2581,7 +2633,7 @@
         <v>159</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>167</v>
@@ -2601,7 +2653,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>170</v>
@@ -2621,7 +2673,7 @@
         <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>173</v>
@@ -2641,7 +2693,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>176</v>
@@ -2661,7 +2713,7 @@
         <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>177</v>
@@ -2681,7 +2733,7 @@
         <v>179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>180</v>
@@ -2701,7 +2753,7 @@
         <v>182</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>183</v>
@@ -2719,7 +2771,7 @@
         <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2733,7 +2785,7 @@
         <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2749,7 +2801,7 @@
         <v>185</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>188</v>
@@ -2769,7 +2821,7 @@
         <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>190</v>
@@ -2789,7 +2841,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>193</v>
@@ -2809,7 +2861,7 @@
         <v>191</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>195</v>
@@ -2829,7 +2881,7 @@
         <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>196</v>
@@ -2849,7 +2901,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>200</v>
@@ -2869,7 +2921,7 @@
         <v>199</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>201</v>
@@ -2889,7 +2941,7 @@
         <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>205</v>
@@ -2909,7 +2961,7 @@
         <v>206</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>207</v>
@@ -2929,7 +2981,7 @@
         <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>211</v>
@@ -2949,7 +3001,7 @@
         <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>213</v>
@@ -2969,7 +3021,7 @@
         <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>220</v>
@@ -2989,7 +3041,7 @@
         <v>215</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>222</v>
@@ -3009,7 +3061,7 @@
         <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>223</v>
@@ -3029,7 +3081,7 @@
         <v>225</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>227</v>
@@ -3049,7 +3101,7 @@
         <v>218</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>229</v>
@@ -3069,7 +3121,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>231</v>
@@ -3089,7 +3141,7 @@
         <v>232</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>234</v>
@@ -3107,7 +3159,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
@@ -3123,7 +3175,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3137,7 +3189,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3195,323 +3247,371 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
@@ -3523,91 +3623,55 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>261</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>99</v>
+      <c r="D72" s="7">
+        <v>45585</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>46</v>
@@ -3615,19 +3679,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>102</v>
+      <c r="D73" s="7">
+        <v>45586</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>46</v>
@@ -3635,19 +3699,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>106</v>
+      <c r="D74" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>46</v>
@@ -3655,76 +3719,76 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>123</v>
+      <c r="D76" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>126</v>
+        <v>106</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -3735,76 +3799,76 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>135</v>
+      <c r="D79" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
+        <v>125</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
@@ -3815,36 +3879,36 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -3854,51 +3918,69 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B85" s="1" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F85" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B86" s="1" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F86" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F87" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>89</v>
@@ -3911,63 +3993,60 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>52</v>
@@ -3975,13 +4054,16 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>52</v>
@@ -3989,13 +4071,13 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>52</v>
@@ -4003,13 +4085,13 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>52</v>
@@ -4017,13 +4099,13 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>52</v>
@@ -4031,13 +4113,13 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>52</v>
@@ -4045,13 +4127,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>52</v>
@@ -4059,13 +4141,13 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>52</v>
@@ -4073,13 +4155,13 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>52</v>
@@ -4087,13 +4169,13 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>52</v>
@@ -4101,13 +4183,13 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>52</v>
@@ -4115,13 +4197,13 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>52</v>
@@ -4129,13 +4211,13 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>52</v>
@@ -4149,7 +4231,7 @@
     <row r="106" spans="1:6">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>52</v>
@@ -4157,13 +4239,13 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>52</v>
@@ -4171,13 +4253,13 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>52</v>
@@ -4185,13 +4267,13 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>52</v>
@@ -4199,64 +4281,82 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" ht="54">
+        <v>52</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="8" t="s">
-        <v>118</v>
+      <c r="F111" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" ht="54">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1"/>
@@ -4345,6 +4445,30 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104FAEFE-D196-3D47-9D35-FC6B422D3A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203812B-7D18-8A41-8182-CC87263CD162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14120" yWindow="4600" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="310">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,10 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 명령어 모아보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방송통신대 2024-02 UNIX 시스템 14강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,10 +1163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git 브랜치의 병합 (앞쪽 병합 여부 확인 명령 포함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20241130_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1209,6 +1201,79 @@
   <si>
     <t>2024-11-30 03:29:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 15:45:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 브랜치의 병합 - fast-forward 3-way squash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 15:58:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 스태시 stash 의 개념과 명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 16:54:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 15강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(예시 및 실습 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 17:03:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 17:15:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset 이전 커밋으로 되돌아가고 커밋 이력 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git revert 현재 커밋 취소하고 이전 커밋으로 되돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset 과 revert 의 차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 17:20:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_008</t>
+  </si>
+  <si>
+    <t>20241130_009</t>
+  </si>
+  <si>
+    <t>20241130_010</t>
   </si>
 </sst>
 </file>
@@ -2387,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3247,16 +3312,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>13</v>
@@ -3267,16 +3332,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>13</v>
@@ -3287,16 +3352,16 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>13</v>
@@ -3307,16 +3372,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>13</v>
@@ -3327,16 +3392,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>13</v>
@@ -3347,16 +3412,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
@@ -3367,16 +3432,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
@@ -3387,16 +3452,16 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>13</v>
@@ -3407,16 +3472,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>13</v>
@@ -3427,16 +3492,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>13</v>
@@ -3447,16 +3512,16 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>13</v>
@@ -3467,16 +3532,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>13</v>
@@ -3487,16 +3552,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>13</v>
@@ -3507,16 +3572,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>13</v>
@@ -3527,148 +3592,216 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F66" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="D71" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D72" s="7">
-        <v>45585</v>
+        <v>45586</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>92</v>
@@ -3679,16 +3812,16 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="7">
-        <v>45586</v>
+      <c r="D73" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>92</v>
@@ -3699,19 +3832,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>94</v>
+      <c r="D74" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>46</v>
@@ -3719,16 +3852,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>13</v>
@@ -3739,16 +3872,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
@@ -3759,36 +3892,36 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>119</v>
+      <c r="D78" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
@@ -3799,19 +3932,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
+      <c r="D79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>47</v>
@@ -3819,19 +3952,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>47</v>
@@ -3839,76 +3972,76 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
@@ -3919,16 +4052,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -3939,16 +4072,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -3958,29 +4091,23 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>89</v>
@@ -3994,7 +4121,7 @@
     <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>89</v>
@@ -4008,7 +4135,7 @@
     <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
@@ -4021,32 +4148,35 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1"/>
-      <c r="B91" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>52</v>
@@ -4054,16 +4184,13 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>52</v>
@@ -4071,13 +4198,13 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>52</v>
@@ -4085,13 +4212,13 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>52</v>
@@ -4099,13 +4226,13 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>52</v>
@@ -4113,13 +4240,13 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1"/>
       <c r="B98" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>52</v>
@@ -4127,13 +4254,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>52</v>
@@ -4141,13 +4268,13 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1"/>
       <c r="B100" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>52</v>
@@ -4155,13 +4282,13 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>52</v>
@@ -4169,13 +4296,13 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1"/>
       <c r="B102" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>52</v>
@@ -4189,7 +4316,7 @@
     <row r="103" spans="1:6">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>52</v>
@@ -4203,7 +4330,7 @@
     <row r="104" spans="1:6">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>52</v>
@@ -4211,13 +4338,13 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1"/>
       <c r="B105" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>52</v>
@@ -4231,7 +4358,7 @@
     <row r="106" spans="1:6">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>52</v>
@@ -4245,7 +4372,7 @@
     <row r="107" spans="1:6">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>52</v>
@@ -4259,7 +4386,7 @@
     <row r="108" spans="1:6">
       <c r="A108" s="1"/>
       <c r="B108" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>52</v>
@@ -4267,13 +4394,13 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>52</v>
@@ -4281,13 +4408,13 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>52</v>
@@ -4295,13 +4422,13 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>52</v>
@@ -4309,54 +4436,48 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B112" s="1" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" ht="54">
+      <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" ht="54">
+        <v>117</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1"/>
-      <c r="B114" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1"/>
@@ -4461,14 +4582,6 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203812B-7D18-8A41-8182-CC87263CD162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F098B7-0B41-874D-AB95-E28B657243BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14120" yWindow="4600" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17080" yWindow="2380" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="432">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,22 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>군집화의 개념과 적용 예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>군집화의 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K-평균 군집화 알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계층적 군집화 알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방송통신대 2024-02 머신러닝 시스템 4강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리눅스 파일 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리눅스 문자열 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,28 +457,6 @@
   </si>
   <si>
     <t>백로그의 개념과 잘 관리하는 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커널과 쉘 그리고 운영체제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) 커널, 쉘, 운영체제
-https://namu.wiki/w/%EC%85%B8(%EC%BB%B4%ED%93%A8%ED%84%B0)
-https://namu.wiki/w/%EC%BB%A4%EB%84%90(%EC%9A%B4%EC%98%81%EC%B2%B4%EC%A0%9C)
-https://chatgpt.com/share/672c3d38-ed80-800f-b999-81b561bd0b7a
-및 단어장  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(3) 리눅스에서 root는 #으로, 일반사용자는 $ 로 시작됨
-https://unix.stackexchange.com/questions/291729/why-is-the-default-symbol-for-a-user-shell-and-the-default-symbol-for-a-root
-https://superuser.com/questions/57575/what-is-the-origin-of-the-unix-dollar-prompt/57613#57613  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리눅스에서 root와 일반사용자의 커맨드 차이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1274,6 +1232,530 @@
   </si>
   <si>
     <t>20241130_010</t>
+  </si>
+  <si>
+    <t>2024-11-30 18:12:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중(명령어가 없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 locate 파일 이름 데이터베이스에서 파일 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 find 여러 검색 조건으로 파일 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 18:20:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241127_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 18:21:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 18:22:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 마운트의 개념과 관련 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 마운트 언마운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파티션 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 볼륨 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 시스템 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 시스템 명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 8강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 프로세스의 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 프로세스 관리 블록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 프로세스의 생성 원리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 포어그라운드 프로세스와 백그라운드 프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 프로세스 특수 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 프로세스 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 프로세스 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 kill 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 nice 와 renice 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 nohup 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 cron 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 crontab 명령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 패키지 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 패키지 파일과 저장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 패키지 의존성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 RPM 패키지 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 DNF 패키지 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 파일 압축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 9강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 10강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 셸 스크립트 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 셸 스크립트 실행 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 셸 스크립트 문법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 read 명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 함수 개념과 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 문법 - 선택 구조 (1) if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 문법 - 선택 구조 (2) case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 문법 - 반복 구조 (1) for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 문법 - 반복 구조 (2) while</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스 문법 - 반복 구조 (3) until</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 11강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 UNIX 시스템 12강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블의 개념과 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 6강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블 - 배깅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블 - 보팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블 - 부스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙상블 - 결합 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징추출의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징추출 - 선형변환에 의한 특징추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징추출 - 주성분분석법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징추출 - 선형판별분석법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특징추출 - 거리 기반 차원 축소 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 5강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 결정 트리의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 결정 트리를 이용한 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 회귀를 위한 결정 트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 랜덤 포레스트의 개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 랜덤 포레스트를 이용한 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 회귀를 위한 랜덤 포레스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 선형 분류기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - SVM 분류기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신러닝 - 커널법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 7강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 8강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망의 구성 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 다양한 연결구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 학습의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - 퍼셉트론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - 다층 퍼셉트론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - 다층 퍼셉트론의 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - 기울기 강하 학습법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - 오류 역전파 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - MLP 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - MLP 학습 전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - MLP를 이용한 간단한 패턴 분류 실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망 - MLP를 이용한 숫자 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 9강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 10강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 딥러닝의 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 학습 성능 향상 방법 (1) 지역 극소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 학습 성능 향상 방법 (2) 느린 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 학습 성능 향상 방법 (3) 과다 적합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 합성곱 신경망(CNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 11강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 기본 순환 신경망(RNN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - GRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 12강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 컴퓨터비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 객체인식을 위한 CNN 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 영상이해를 위한 딥러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 영상변환 및 생성을 위한 딥러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 13강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 자연어처리 응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 자연어처리를 위한 머신러닝 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝의 응용 - 언어 모델을 위한 딥러닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 14강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - 강화학습의 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 - Q-학습과 심층 Q-신경망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 머신러닝 시스템 15강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 22:16:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집화 - K-평균 군집화 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집화 - 계층적 군집화 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집화 - 군집화의 개념과 군집화 모델의 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 (예시 이미지 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 (대표 벡터 수정식 수학적 부분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 23:20:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 (실제 진행해보자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241130_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-30 23:58:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241201_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-01 00:42:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-01 01:50:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241201_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 (식에 대한 이해)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1385,7 +1867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,6 +1887,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2452,11 +2935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2515,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -2529,16 +3012,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -2549,16 +3032,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -2567,21 +3050,21 @@
         <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -2598,7 +3081,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -2618,7 +3101,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -2641,7 +3124,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -2652,390 +3135,402 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="162">
-      <c r="A19" s="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="162">
-      <c r="A20" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="8" t="s">
-        <v>114</v>
+        <v>232</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3043,10 +3538,10 @@
         <v>210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>211</v>
@@ -3055,18 +3550,18 @@
         <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>213</v>
@@ -3075,1518 +3570,2801 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F40" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>236</v>
+        <v>321</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>250</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>259</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>266</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>281</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>295</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>308</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>348</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="7">
-        <v>45585</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>91</v>
+        <v>349</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72" s="7">
-        <v>45586</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>100</v>
+        <v>351</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>104</v>
+        <v>236</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>123</v>
+        <v>247</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>126</v>
+        <v>242</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>47</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="7">
+        <v>45585</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="7">
+        <v>45586</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F111" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" ht="54">
-      <c r="A113" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B113" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="8" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="B125" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="B126" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" ht="54">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F098B7-0B41-874D-AB95-E28B657243BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F8C4A7-DE62-8B4D-9143-C085733B437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17080" yWindow="2380" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="435">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1755,6 +1755,18 @@
   </si>
   <si>
     <t>진행중 (식에 대한 이해)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241201_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-01 02:23:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중 (수학적 유도, 예시 등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1867,7 +1879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,7 +1899,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2939,7 +2950,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5095,7 +5106,7 @@
       <c r="C119" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="6" t="s">
         <v>429</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5106,15 +5117,21 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="F120" s="1" t="s">
         <v>366</v>
       </c>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F8C4A7-DE62-8B4D-9143-C085733B437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC300DDE-AD0E-D24A-B759-E2BD1EAB62E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="2380" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18860" yWindow="7980" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="462">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1767,6 +1768,114 @@
   </si>
   <si>
     <t>진행중 (수학적 유도, 예시 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod -x script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 첫 번째 줄에 #!(해시뱅)이 있어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 실행 후 현재 셸에서 환경변수 유지됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터프리터를 명시적으로 호출해 스크립트 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bin/bash script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸을 지정하여 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bash -x script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셸 스크립트를 디버그 모드로 실행. 명령 실행 전 해당 명령을 출력함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>builtin script.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오답. Builtin source script.sh 처럼 사용해야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,7 +1883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,8 +1929,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1837,6 +1955,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,6 +2023,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2949,8 +3082,8 @@
   <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6386,6 +6519,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B4D06-9B68-C449-A63A-387935437D0A}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEA981-5063-FA43-8603-9FE820B29075}">
   <dimension ref="B28:D28"/>
   <sheetViews>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC300DDE-AD0E-D24A-B759-E2BD1EAB62E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E6227F-ECC2-E641-83E5-9AB6A69B2A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18860" yWindow="7980" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="473">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1876,6 +1876,50 @@
   </si>
   <si>
     <t>SCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-10-21 12:30:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 알고리즘의 개념과 성능 그리고 자료구조와의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-02 00:40:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-02 00:45:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241202_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 복잡도와 공간 복잡도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241201_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 자료형과 추상 자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-02-01:56:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241202_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241202_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2003,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2032,6 +2076,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3079,11 +3124,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6084,15 +6129,21 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B188" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="D188" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F188" s="1" t="s">
         <v>48</v>
       </c>
@@ -6101,51 +6152,69 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="B189" s="1" t="s">
-        <v>49</v>
+        <v>463</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
+      <c r="D189" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F189" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G189" s="14"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="B190" s="1" t="s">
-        <v>50</v>
+        <v>469</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
+      <c r="D190" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F190" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G190" s="14"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="B191" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="F191" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>47</v>
@@ -6153,13 +6222,13 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>47</v>
@@ -6167,13 +6236,13 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>47</v>
@@ -6181,13 +6250,13 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>47</v>
@@ -6195,13 +6264,13 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>47</v>
@@ -6209,13 +6278,13 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>47</v>
@@ -6223,13 +6292,13 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>47</v>
@@ -6237,13 +6306,13 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>47</v>
@@ -6257,7 +6326,7 @@
     <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>47</v>
@@ -6265,13 +6334,13 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>47</v>
@@ -6279,13 +6348,13 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>47</v>
@@ -6299,7 +6368,7 @@
     <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>47</v>
@@ -6313,7 +6382,7 @@
     <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>47</v>
@@ -6321,13 +6390,13 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>47</v>
@@ -6335,13 +6404,13 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>47</v>
@@ -6349,13 +6418,13 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>47</v>
@@ -6363,63 +6432,85 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" ht="54">
+        <v>47</v>
+      </c>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="8" t="s">
-        <v>109</v>
+      <c r="F209" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" ht="54">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="F211" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6">
@@ -6501,14 +6592,6 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E6227F-ECC2-E641-83E5-9AB6A69B2A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5302E3D-01F6-4C40-A53F-6533CCC66479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="7980" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="474">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1920,6 +1920,10 @@
   </si>
   <si>
     <t>20241202_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-04 01:57:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2047,7 +2051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2076,7 +2080,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3128,7 +3131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
+      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6170,7 +6173,6 @@
       <c r="F189" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G189" s="14"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
@@ -6191,7 +6193,6 @@
       <c r="F190" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G190" s="14"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
@@ -6203,9 +6204,11 @@
       <c r="C191" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D191" s="1"/>
+      <c r="D191" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="E191" s="1" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>59</v>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5302E3D-01F6-4C40-A53F-6533CCC66479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD1375-B8F5-4471-8E70-5D7CEB46D101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="476">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1924,6 +1924,14 @@
   </si>
   <si>
     <t>2024-12-04 01:57:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241204_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1931,7 +1939,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3129,22 +3137,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3182,7 +3190,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -3222,7 +3230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
@@ -3245,7 +3253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3285,7 +3293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3305,7 +3313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3325,7 +3333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
@@ -3385,7 +3393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>166</v>
       </c>
@@ -3445,7 +3453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>172</v>
       </c>
@@ -3485,7 +3493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
@@ -3505,7 +3513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>180</v>
       </c>
@@ -3545,7 +3553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
@@ -3565,7 +3573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>185</v>
       </c>
@@ -3585,7 +3593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -3605,7 +3613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>189</v>
       </c>
@@ -3625,7 +3633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>195</v>
       </c>
@@ -3665,7 +3673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
@@ -3685,7 +3693,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>201</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>205</v>
       </c>
@@ -3725,7 +3733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
@@ -3745,7 +3753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>212</v>
       </c>
@@ -3765,7 +3773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
@@ -3805,7 +3813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
@@ -3825,7 +3833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>221</v>
       </c>
@@ -3845,7 +3853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>224</v>
       </c>
@@ -3865,7 +3873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>307</v>
       </c>
@@ -3885,7 +3893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>303</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>309</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>310</v>
       </c>
@@ -3945,7 +3953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>312</v>
@@ -3957,7 +3965,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>313</v>
@@ -3971,7 +3979,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>314</v>
@@ -3985,7 +3993,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>315</v>
@@ -3999,7 +4007,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>316</v>
@@ -4013,7 +4021,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>317</v>
@@ -4027,7 +4035,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>319</v>
@@ -4039,7 +4047,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>320</v>
@@ -4051,7 +4059,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>321</v>
@@ -4065,7 +4073,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>322</v>
@@ -4079,7 +4087,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>323</v>
@@ -4091,7 +4099,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>324</v>
@@ -4105,7 +4113,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>325</v>
@@ -4119,7 +4127,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>326</v>
@@ -4133,7 +4141,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>327</v>
@@ -4145,7 +4153,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>328</v>
@@ -4157,7 +4165,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>329</v>
@@ -4171,7 +4179,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>330</v>
@@ -4185,7 +4193,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>331</v>
@@ -4199,7 +4207,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>332</v>
@@ -4213,7 +4221,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>333</v>
@@ -4225,7 +4233,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>334</v>
@@ -4239,7 +4247,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>335</v>
@@ -4253,7 +4261,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>336</v>
@@ -4265,7 +4273,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>339</v>
@@ -4279,7 +4287,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>340</v>
@@ -4293,7 +4301,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>341</v>
@@ -4307,7 +4315,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>345</v>
@@ -4321,7 +4329,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>346</v>
@@ -4333,7 +4341,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>347</v>
@@ -4347,7 +4355,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>348</v>
@@ -4361,7 +4369,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>349</v>
@@ -4375,7 +4383,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>350</v>
@@ -4389,7 +4397,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>351</v>
@@ -4403,7 +4411,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>352</v>
@@ -4417,7 +4425,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4437,7 +4445,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>238</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>241</v>
       </c>
@@ -4477,7 +4485,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -4497,7 +4505,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -4517,7 +4525,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -4537,7 +4545,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>253</v>
       </c>
@@ -4557,7 +4565,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>254</v>
       </c>
@@ -4577,7 +4585,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>257</v>
       </c>
@@ -4597,7 +4605,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -4617,7 +4625,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>263</v>
       </c>
@@ -4637,7 +4645,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4657,7 +4665,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
@@ -4697,7 +4705,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>273</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>274</v>
       </c>
@@ -4757,7 +4765,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>282</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4797,7 +4805,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>289</v>
       </c>
@@ -4817,7 +4825,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>298</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>299</v>
       </c>
@@ -4857,7 +4865,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>300</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>92</v>
       </c>
@@ -4897,7 +4905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>91</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4937,7 +4945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>93</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -4977,7 +4985,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -4997,7 +5005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
@@ -5017,7 +5025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
@@ -5037,7 +5045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -5057,7 +5065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5077,7 +5085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -5097,7 +5105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
@@ -5117,7 +5125,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>133</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>135</v>
       </c>
@@ -5157,7 +5165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>137</v>
       </c>
@@ -5177,7 +5185,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>139</v>
       </c>
@@ -5197,7 +5205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>419</v>
       </c>
@@ -5217,7 +5225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>423</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>425</v>
       </c>
@@ -5257,7 +5265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>427</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>430</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>432</v>
       </c>
@@ -5317,7 +5325,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>364</v>
@@ -5331,7 +5339,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>365</v>
@@ -5345,7 +5353,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>355</v>
@@ -5359,7 +5367,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>357</v>
@@ -5373,7 +5381,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>358</v>
@@ -5387,7 +5395,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>359</v>
@@ -5401,7 +5409,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>360</v>
@@ -5415,7 +5423,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>367</v>
@@ -5429,7 +5437,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>368</v>
@@ -5443,7 +5451,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>369</v>
@@ -5457,7 +5465,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>370</v>
@@ -5471,7 +5479,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>371</v>
@@ -5485,7 +5493,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>372</v>
@@ -5499,7 +5507,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>373</v>
@@ -5513,7 +5521,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>374</v>
@@ -5527,7 +5535,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>375</v>
@@ -5541,7 +5549,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>378</v>
@@ -5555,7 +5563,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>379</v>
@@ -5569,7 +5577,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>380</v>
@@ -5583,7 +5591,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>381</v>
@@ -5597,7 +5605,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>382</v>
@@ -5611,7 +5619,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>383</v>
@@ -5625,7 +5633,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>384</v>
@@ -5639,7 +5647,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>385</v>
@@ -5653,7 +5661,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>386</v>
@@ -5667,7 +5675,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>387</v>
@@ -5681,7 +5689,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>388</v>
@@ -5695,7 +5703,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>389</v>
@@ -5709,7 +5717,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>390</v>
@@ -5723,7 +5731,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>393</v>
@@ -5737,7 +5745,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>394</v>
@@ -5751,7 +5759,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>395</v>
@@ -5765,7 +5773,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>396</v>
@@ -5779,7 +5787,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>397</v>
@@ -5793,7 +5801,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>399</v>
@@ -5807,7 +5815,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>400</v>
@@ -5821,7 +5829,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>401</v>
@@ -5835,7 +5843,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>403</v>
@@ -5849,7 +5857,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>404</v>
@@ -5863,7 +5871,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>405</v>
@@ -5877,7 +5885,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>406</v>
@@ -5891,7 +5899,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>408</v>
@@ -5905,7 +5913,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>409</v>
@@ -5919,7 +5927,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>410</v>
@@ -5933,7 +5941,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>412</v>
@@ -5947,7 +5955,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>413</v>
@@ -5961,7 +5969,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5969,7 +5977,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5977,7 +5985,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5985,7 +5993,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5993,7 +6001,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6001,7 +6009,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6009,7 +6017,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6017,7 +6025,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6025,7 +6033,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6033,7 +6041,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6041,7 +6049,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6049,7 +6057,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6057,7 +6065,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6065,7 +6073,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6073,7 +6081,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6081,7 +6089,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6089,7 +6097,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6097,7 +6105,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6105,7 +6113,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6113,7 +6121,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6121,7 +6129,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6131,7 +6139,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>91</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>468</v>
       </c>
@@ -6174,7 +6182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>472</v>
       </c>
@@ -6194,7 +6202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>471</v>
       </c>
@@ -6214,8 +6222,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="1"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="B192" s="1" t="s">
         <v>50</v>
       </c>
@@ -6223,12 +6233,14 @@
         <v>47</v>
       </c>
       <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
+      <c r="E192" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="F192" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>51</v>
@@ -6242,7 +6254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>52</v>
@@ -6256,7 +6268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>53</v>
@@ -6270,7 +6282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>54</v>
@@ -6284,7 +6296,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>55</v>
@@ -6298,7 +6310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>56</v>
@@ -6312,7 +6324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>69</v>
@@ -6326,7 +6338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>68</v>
@@ -6340,7 +6352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>71</v>
@@ -6354,7 +6366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>72</v>
@@ -6368,7 +6380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>75</v>
@@ -6382,7 +6394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>74</v>
@@ -6396,7 +6408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>73</v>
@@ -6410,7 +6422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>76</v>
@@ -6424,7 +6436,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>78</v>
@@ -6438,7 +6450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>57</v>
@@ -6452,7 +6464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>58</v>
@@ -6466,7 +6478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>102</v>
       </c>
@@ -6484,7 +6496,7 @@
       </c>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" ht="54">
+    <row r="211" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>107</v>
@@ -6498,7 +6510,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>466</v>
       </c>
@@ -6516,7 +6528,7 @@
       </c>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6524,7 +6536,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6532,7 +6544,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6540,7 +6552,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6548,7 +6560,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6556,7 +6568,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6564,7 +6576,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6572,7 +6584,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6580,7 +6592,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6588,7 +6600,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6612,13 +6624,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>435</v>
       </c>
@@ -6626,7 +6638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>436</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>437</v>
       </c>
@@ -6642,7 +6654,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>438</v>
       </c>
@@ -6650,7 +6662,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>440</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>443</v>
       </c>
@@ -6666,7 +6678,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>444</v>
       </c>
@@ -6674,7 +6686,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
@@ -6682,7 +6694,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>448</v>
       </c>
@@ -6690,12 +6702,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="13" t="s">
         <v>457</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="12" t="s">
         <v>450</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="12" t="s">
         <v>459</v>
       </c>
@@ -6719,7 +6731,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="12" t="s">
         <v>461</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="12" t="s">
         <v>453</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="12" t="s">
         <v>452</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
         <v>451</v>
       </c>
@@ -6751,7 +6763,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="12" t="s">
         <v>460</v>
       </c>
@@ -6773,9 +6785,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BD1375-B8F5-4471-8E70-5D7CEB46D101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC8102-381D-1B44-84F9-327207D6CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="479">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1927,11 +1927,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20241204_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
+    <t>사칙연산의 전위 후위 중위 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 01:24:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 03:11:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1939,7 +1951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3137,22 +3149,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3172,7 +3184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3202,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>142</v>
       </c>
@@ -3230,7 +3242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>144</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>147</v>
       </c>
@@ -3273,7 +3285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3293,7 +3305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3333,7 +3345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
@@ -3353,7 +3365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -3373,7 +3385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
@@ -3393,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
@@ -3413,7 +3425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>166</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>172</v>
       </c>
@@ -3493,7 +3505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>175</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
@@ -3533,7 +3545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>180</v>
       </c>
@@ -3553,7 +3565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
@@ -3573,7 +3585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>185</v>
       </c>
@@ -3593,7 +3605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -3613,7 +3625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>189</v>
       </c>
@@ -3633,7 +3645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>195</v>
       </c>
@@ -3673,7 +3685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>201</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>205</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>210</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>212</v>
       </c>
@@ -3773,7 +3785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>217</v>
       </c>
@@ -3813,7 +3825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>219</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>221</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>224</v>
       </c>
@@ -3873,7 +3885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>307</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>303</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>309</v>
       </c>
@@ -3933,7 +3945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>310</v>
       </c>
@@ -3953,7 +3965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>312</v>
@@ -3965,7 +3977,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>313</v>
@@ -3979,7 +3991,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>314</v>
@@ -3993,7 +4005,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>315</v>
@@ -4007,7 +4019,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>316</v>
@@ -4021,7 +4033,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>317</v>
@@ -4035,7 +4047,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>319</v>
@@ -4047,7 +4059,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>320</v>
@@ -4059,7 +4071,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>321</v>
@@ -4073,7 +4085,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>322</v>
@@ -4087,7 +4099,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>323</v>
@@ -4099,7 +4111,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>324</v>
@@ -4113,7 +4125,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>325</v>
@@ -4127,7 +4139,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>326</v>
@@ -4141,7 +4153,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>327</v>
@@ -4153,7 +4165,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>328</v>
@@ -4165,7 +4177,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>329</v>
@@ -4179,7 +4191,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>330</v>
@@ -4193,7 +4205,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>331</v>
@@ -4207,7 +4219,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>332</v>
@@ -4221,7 +4233,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>333</v>
@@ -4233,7 +4245,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>334</v>
@@ -4247,7 +4259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>335</v>
@@ -4261,7 +4273,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>336</v>
@@ -4273,7 +4285,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>339</v>
@@ -4287,7 +4299,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>340</v>
@@ -4301,7 +4313,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>341</v>
@@ -4315,7 +4327,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>345</v>
@@ -4329,7 +4341,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>346</v>
@@ -4341,7 +4353,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>347</v>
@@ -4355,7 +4367,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>348</v>
@@ -4369,7 +4381,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>349</v>
@@ -4383,7 +4395,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>350</v>
@@ -4397,7 +4409,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>351</v>
@@ -4411,7 +4423,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>352</v>
@@ -4425,7 +4437,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>236</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>238</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>241</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -4525,7 +4537,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>253</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>254</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>257</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -4625,7 +4637,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>263</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4665,7 +4677,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>272</v>
       </c>
@@ -4725,7 +4737,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>273</v>
       </c>
@@ -4745,7 +4757,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>274</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>282</v>
       </c>
@@ -4785,7 +4797,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>286</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>289</v>
       </c>
@@ -4825,7 +4837,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>298</v>
       </c>
@@ -4845,7 +4857,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>299</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>300</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>92</v>
       </c>
@@ -4905,7 +4917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>91</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>93</v>
       </c>
@@ -4965,7 +4977,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>96</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>99</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
@@ -5045,7 +5057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5085,7 +5097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>125</v>
       </c>
@@ -5105,7 +5117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>128</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>133</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>135</v>
       </c>
@@ -5165,7 +5177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>137</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>139</v>
       </c>
@@ -5205,7 +5217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>419</v>
       </c>
@@ -5225,7 +5237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>423</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>425</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>427</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>430</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>432</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>364</v>
@@ -5339,7 +5351,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>365</v>
@@ -5353,7 +5365,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>355</v>
@@ -5367,7 +5379,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>357</v>
@@ -5381,7 +5393,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>358</v>
@@ -5395,7 +5407,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>359</v>
@@ -5409,7 +5421,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>360</v>
@@ -5423,7 +5435,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>367</v>
@@ -5437,7 +5449,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>368</v>
@@ -5451,7 +5463,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>369</v>
@@ -5465,7 +5477,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>370</v>
@@ -5479,7 +5491,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>371</v>
@@ -5493,7 +5505,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>372</v>
@@ -5507,7 +5519,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>373</v>
@@ -5521,7 +5533,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>374</v>
@@ -5535,7 +5547,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>375</v>
@@ -5549,7 +5561,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>378</v>
@@ -5563,7 +5575,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>379</v>
@@ -5577,7 +5589,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>380</v>
@@ -5591,7 +5603,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>381</v>
@@ -5605,7 +5617,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>382</v>
@@ -5619,7 +5631,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>383</v>
@@ -5633,7 +5645,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>384</v>
@@ -5647,7 +5659,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>385</v>
@@ -5661,7 +5673,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>386</v>
@@ -5675,7 +5687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>387</v>
@@ -5689,7 +5701,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>388</v>
@@ -5703,7 +5715,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>389</v>
@@ -5717,7 +5729,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>390</v>
@@ -5731,7 +5743,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>393</v>
@@ -5745,7 +5757,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>394</v>
@@ -5759,7 +5771,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>395</v>
@@ -5773,7 +5785,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>396</v>
@@ -5787,7 +5799,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>397</v>
@@ -5801,7 +5813,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>399</v>
@@ -5815,7 +5827,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>400</v>
@@ -5829,7 +5841,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>401</v>
@@ -5843,7 +5855,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>403</v>
@@ -5857,7 +5869,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>404</v>
@@ -5871,7 +5883,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>405</v>
@@ -5885,7 +5897,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>406</v>
@@ -5899,7 +5911,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>408</v>
@@ -5913,7 +5925,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>409</v>
@@ -5927,7 +5939,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>410</v>
@@ -5941,7 +5953,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>412</v>
@@ -5955,7 +5967,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>413</v>
@@ -5969,7 +5981,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5977,7 +5989,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5985,7 +5997,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5993,7 +6005,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6001,7 +6013,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6009,7 +6021,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6017,7 +6029,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6025,7 +6037,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6033,7 +6045,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6041,7 +6053,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6049,7 +6061,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6057,7 +6069,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6065,7 +6077,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6073,7 +6085,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6081,7 +6093,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6089,7 +6101,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6097,7 +6109,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6105,7 +6117,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6113,7 +6125,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6121,7 +6133,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6129,7 +6141,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6139,7 +6151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>91</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>468</v>
       </c>
@@ -6182,7 +6194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
         <v>472</v>
       </c>
@@ -6202,7 +6214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
         <v>471</v>
       </c>
@@ -6222,9 +6234,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>50</v>
@@ -6232,15 +6244,17 @@
       <c r="C192" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D192" s="1"/>
+      <c r="D192" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="E192" s="1" t="s">
-        <v>475</v>
+        <v>13</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>51</v>
@@ -6254,7 +6268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
         <v>52</v>
@@ -6268,7 +6282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>53</v>
@@ -6282,7 +6296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>54</v>
@@ -6296,7 +6310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
         <v>55</v>
@@ -6310,7 +6324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
         <v>56</v>
@@ -6324,7 +6338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
         <v>69</v>
@@ -6338,7 +6352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
         <v>68</v>
@@ -6352,7 +6366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
         <v>71</v>
@@ -6366,7 +6380,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
         <v>72</v>
@@ -6380,7 +6394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>75</v>
@@ -6394,7 +6408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>74</v>
@@ -6408,7 +6422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>73</v>
@@ -6422,7 +6436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>76</v>
@@ -6436,7 +6450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>78</v>
@@ -6450,7 +6464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>57</v>
@@ -6464,7 +6478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>58</v>
@@ -6478,7 +6492,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
         <v>102</v>
       </c>
@@ -6496,7 +6510,7 @@
       </c>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="54">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
         <v>107</v>
@@ -6510,7 +6524,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
         <v>466</v>
       </c>
@@ -6528,15 +6542,23 @@
       </c>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6544,7 +6566,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6552,7 +6574,7 @@
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6560,7 +6582,7 @@
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6568,7 +6590,7 @@
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6576,7 +6598,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6584,7 +6606,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6592,7 +6614,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6600,7 +6622,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6624,13 +6646,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>435</v>
       </c>
@@ -6638,7 +6660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>436</v>
       </c>
@@ -6646,7 +6668,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>437</v>
       </c>
@@ -6654,7 +6676,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>438</v>
       </c>
@@ -6662,7 +6684,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>440</v>
       </c>
@@ -6670,7 +6692,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>443</v>
       </c>
@@ -6678,7 +6700,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>444</v>
       </c>
@@ -6686,7 +6708,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>446</v>
       </c>
@@ -6694,7 +6716,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>448</v>
       </c>
@@ -6702,12 +6724,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="D12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="D13" s="13" t="s">
         <v>457</v>
       </c>
@@ -6715,7 +6737,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="D14" s="12" t="s">
         <v>450</v>
       </c>
@@ -6723,7 +6745,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="D15" s="12" t="s">
         <v>459</v>
       </c>
@@ -6731,7 +6753,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="D16" s="12" t="s">
         <v>461</v>
       </c>
@@ -6739,7 +6761,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" s="12" t="s">
         <v>453</v>
       </c>
@@ -6747,7 +6769,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" s="12" t="s">
         <v>452</v>
       </c>
@@ -6755,7 +6777,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>451</v>
       </c>
@@ -6763,7 +6785,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>460</v>
       </c>
@@ -6785,9 +6807,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <sheetData>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC8102-381D-1B44-84F9-327207D6CAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F14D3C-B59C-304B-B700-0B28B42B4E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="487">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,10 +248,6 @@
   </si>
   <si>
     <t>자료구조 - 큐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료구조 - 연결 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1944,6 +1940,42 @@
   </si>
   <si>
     <t>20241207_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241204_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 13:01:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 리스트와 연결 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결리스트의 여러가지 연산 미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 14:51:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 연결리스트의 연산 방법 미정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 15:32:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3151,7 +3183,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3210,7 +3242,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -3224,16 +3256,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -3244,16 +3276,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -3262,21 +3294,21 @@
         <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -3293,7 +3325,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -3313,7 +3345,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3336,7 +3368,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -3347,16 +3379,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -3367,16 +3399,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -3387,16 +3419,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -3407,16 +3439,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -3427,16 +3459,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -3447,16 +3479,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -3467,16 +3499,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -3487,16 +3519,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -3507,16 +3539,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -3527,16 +3559,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -3547,16 +3579,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -3567,16 +3599,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -3587,16 +3619,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -3607,16 +3639,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -3627,16 +3659,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -3647,16 +3679,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -3667,16 +3699,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -3687,16 +3719,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -3707,16 +3739,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -3727,16 +3759,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -3747,16 +3779,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -3767,16 +3799,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -3787,16 +3819,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -3807,16 +3839,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -3827,16 +3859,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -3847,16 +3879,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -3867,16 +3899,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -3887,19 +3919,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>40</v>
@@ -3907,19 +3939,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
@@ -3927,19 +3959,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>40</v>
@@ -3947,19 +3979,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>40</v>
@@ -3968,950 +4000,950 @@
     <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D99" s="7">
         <v>45585</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>41</v>
@@ -4919,19 +4951,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D100" s="7">
         <v>45586</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>41</v>
@@ -4939,19 +4971,19 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>41</v>
@@ -4959,16 +4991,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>13</v>
@@ -4979,16 +5011,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -4999,16 +5031,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -5019,16 +5051,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -5039,16 +5071,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
@@ -5059,19 +5091,19 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>42</v>
@@ -5079,16 +5111,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>13</v>
@@ -5099,16 +5131,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>13</v>
@@ -5119,36 +5151,36 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>13</v>
@@ -5159,16 +5191,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>13</v>
@@ -5179,16 +5211,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>13</v>
@@ -5199,16 +5231,16 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>13</v>
@@ -5219,19 +5251,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>27</v>
@@ -5239,19 +5271,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>27</v>
@@ -5259,19 +5291,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>27</v>
@@ -5279,706 +5311,706 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6148,12 +6180,12 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>46</v>
@@ -6162,7 +6194,7 @@
         <v>47</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>13</v>
@@ -6171,21 +6203,21 @@
         <v>48</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>13</v>
@@ -6196,16 +6228,16 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>13</v>
@@ -6216,7 +6248,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>49</v>
@@ -6225,13 +6257,13 @@
         <v>47</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6245,61 +6277,79 @@
         <v>47</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
+      <c r="D193" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F193" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="B194" s="1" t="s">
-        <v>52</v>
+        <v>480</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+      <c r="D194" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="F194" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="B195" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
+      <c r="D195" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="F195" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>47</v>
@@ -6307,13 +6357,13 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>47</v>
@@ -6321,13 +6371,13 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>47</v>
@@ -6335,13 +6385,13 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>47</v>
@@ -6349,13 +6399,13 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>47</v>
@@ -6363,13 +6413,13 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>47</v>
@@ -6377,13 +6427,13 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>47</v>
@@ -6391,13 +6441,13 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>47</v>
@@ -6405,13 +6455,13 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>47</v>
@@ -6419,13 +6469,13 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>47</v>
@@ -6433,13 +6483,13 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>47</v>
@@ -6447,13 +6497,13 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>47</v>
@@ -6461,13 +6511,13 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>47</v>
@@ -6475,13 +6525,13 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>47</v>
@@ -6489,53 +6539,53 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" ht="54">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>13</v>
@@ -6544,16 +6594,16 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -6654,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -6662,135 +6712,135 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F14D3C-B59C-304B-B700-0B28B42B4E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3D9BD-2164-4240-8119-A3D18D32F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="493">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1976,6 +1976,30 @@
   </si>
   <si>
     <t>20241207_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 표현 방법 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 17:12:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진트리의 순회 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-07 21:22:00 +0900  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3179,11 +3203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6347,37 +6371,49 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="B196" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
+      <c r="D196" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="F196" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="B197" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
+      <c r="D197" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="F197" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>47</v>
@@ -6385,13 +6421,13 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>47</v>
@@ -6399,13 +6435,13 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>47</v>
@@ -6419,7 +6455,7 @@
     <row r="201" spans="1:6">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>47</v>
@@ -6433,7 +6469,7 @@
     <row r="202" spans="1:6">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>47</v>
@@ -6441,13 +6477,13 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>47</v>
@@ -6461,7 +6497,7 @@
     <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>47</v>
@@ -6475,7 +6511,7 @@
     <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>47</v>
@@ -6489,7 +6525,7 @@
     <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>47</v>
@@ -6497,13 +6533,13 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>47</v>
@@ -6511,13 +6547,13 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>47</v>
@@ -6525,13 +6561,13 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>47</v>
@@ -6539,80 +6575,86 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1" t="s">
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6" ht="54">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1" t="s">
+      <c r="F211" s="1"/>
+    </row>
+    <row r="212" spans="1:6" ht="54">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="8" t="s">
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="8" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D213" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="1"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
@@ -6679,6 +6721,14 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3D9BD-2164-4240-8119-A3D18D32F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEBE923-38C1-E143-9EB2-C753B7B0E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="507">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1991,15 +1991,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이진트리의 순회 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20241207_006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2024-12-07 21:22:00 +0900  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레드 트리의 연산 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 22:05:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙의 연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-07 22:56:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-08 00:27:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241207_009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직히 뭐라고하는건지 잘 모르겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241208_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-08 01:02:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 - 그 외 트리들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-02 자료구조 11강 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-08 01:22:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241208_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3207,7 +3263,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6392,7 +6448,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>70</v>
@@ -6401,83 +6457,111 @@
         <v>47</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>490</v>
+        <v>13</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
+      <c r="D198" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="F198" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
+      <c r="D199" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="F199" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
+      <c r="D200" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F200" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="B201" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
+      <c r="D201" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="F201" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="B202" s="1" t="s">
-        <v>70</v>
+        <v>503</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D202" s="1"/>
+      <c r="D202" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1" t="s">
-        <v>66</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="1:6">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEBE923-38C1-E143-9EB2-C753B7B0E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0099BC-3DD8-4B53-A7EF-74506F774796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="8520" windowWidth="29380" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="514">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2056,6 +2056,34 @@
   </si>
   <si>
     <t>20241208_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrete_mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이산수학의 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 이산수항 01강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘에 대한 정의와 표현 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추상화의 정의와 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-09 13:09:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241209_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2063,7 +2091,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3262,21 +3290,21 @@
   <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3314,7 +3342,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3354,7 +3382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -3377,7 +3405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>146</v>
       </c>
@@ -3397,7 +3425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3417,7 +3445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3437,7 +3465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3457,7 +3485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -3477,7 +3505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -3497,7 +3525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -3517,7 +3545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -3537,7 +3565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>162</v>
       </c>
@@ -3557,7 +3585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -3577,7 +3605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
@@ -3597,7 +3625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -3617,7 +3645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
@@ -3637,7 +3665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>177</v>
       </c>
@@ -3657,7 +3685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -3677,7 +3705,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>182</v>
       </c>
@@ -3697,7 +3725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -3717,7 +3745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>187</v>
       </c>
@@ -3737,7 +3765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>188</v>
       </c>
@@ -3757,7 +3785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -3777,7 +3805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
@@ -3797,7 +3825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
@@ -3817,7 +3845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>200</v>
       </c>
@@ -3837,7 +3865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>204</v>
       </c>
@@ -3857,7 +3885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>209</v>
       </c>
@@ -3877,7 +3905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>211</v>
       </c>
@@ -3897,7 +3925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>214</v>
       </c>
@@ -3917,7 +3945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -3937,7 +3965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>218</v>
       </c>
@@ -3957,7 +3985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>220</v>
       </c>
@@ -3977,7 +4005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>223</v>
       </c>
@@ -3997,7 +4025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>306</v>
       </c>
@@ -4017,7 +4045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>302</v>
       </c>
@@ -4037,7 +4065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>308</v>
       </c>
@@ -4057,7 +4085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>309</v>
       </c>
@@ -4077,7 +4105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>311</v>
@@ -4089,7 +4117,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>312</v>
@@ -4103,7 +4131,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>313</v>
@@ -4117,7 +4145,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>314</v>
@@ -4131,7 +4159,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>315</v>
@@ -4145,7 +4173,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>316</v>
@@ -4159,7 +4187,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>318</v>
@@ -4171,7 +4199,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>319</v>
@@ -4183,7 +4211,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>320</v>
@@ -4197,7 +4225,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>321</v>
@@ -4211,7 +4239,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>322</v>
@@ -4223,7 +4251,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>323</v>
@@ -4237,7 +4265,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>324</v>
@@ -4251,7 +4279,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>325</v>
@@ -4265,7 +4293,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>326</v>
@@ -4277,7 +4305,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>327</v>
@@ -4289,7 +4317,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>328</v>
@@ -4303,7 +4331,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>329</v>
@@ -4317,7 +4345,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>330</v>
@@ -4331,7 +4359,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>331</v>
@@ -4345,7 +4373,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>332</v>
@@ -4357,7 +4385,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>333</v>
@@ -4371,7 +4399,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>334</v>
@@ -4385,7 +4413,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>335</v>
@@ -4397,7 +4425,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>338</v>
@@ -4411,7 +4439,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>339</v>
@@ -4425,7 +4453,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>340</v>
@@ -4439,7 +4467,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>344</v>
@@ -4453,7 +4481,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>345</v>
@@ -4465,7 +4493,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>346</v>
@@ -4479,7 +4507,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>347</v>
@@ -4493,7 +4521,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>348</v>
@@ -4507,7 +4535,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>349</v>
@@ -4521,7 +4549,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>350</v>
@@ -4535,7 +4563,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>351</v>
@@ -4549,7 +4577,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>235</v>
       </c>
@@ -4569,7 +4597,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -4589,7 +4617,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -4609,7 +4637,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>242</v>
       </c>
@@ -4629,7 +4657,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
@@ -4649,7 +4677,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -4669,7 +4697,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -4689,7 +4717,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>253</v>
       </c>
@@ -4709,7 +4737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>256</v>
       </c>
@@ -4729,7 +4757,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -4749,7 +4777,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4769,7 +4797,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -4789,7 +4817,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -4809,7 +4837,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -4829,7 +4857,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>271</v>
       </c>
@@ -4849,7 +4877,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>272</v>
       </c>
@@ -4869,7 +4897,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>273</v>
       </c>
@@ -4889,7 +4917,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -4909,7 +4937,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -4929,7 +4957,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>288</v>
       </c>
@@ -4949,7 +4977,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>297</v>
       </c>
@@ -4969,7 +4997,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>298</v>
       </c>
@@ -4989,7 +5017,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>299</v>
       </c>
@@ -5009,7 +5037,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>91</v>
       </c>
@@ -5029,7 +5057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
@@ -5049,7 +5077,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5069,7 +5097,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -5089,7 +5117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
@@ -5109,7 +5137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>98</v>
       </c>
@@ -5129,7 +5157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -5149,7 +5177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
@@ -5169,7 +5197,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -5189,7 +5217,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -5209,7 +5237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
@@ -5229,7 +5257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -5249,7 +5277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>132</v>
       </c>
@@ -5269,7 +5297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>134</v>
       </c>
@@ -5289,7 +5317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>136</v>
       </c>
@@ -5309,7 +5337,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>138</v>
       </c>
@@ -5329,7 +5357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>418</v>
       </c>
@@ -5349,7 +5377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>422</v>
       </c>
@@ -5369,7 +5397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>424</v>
       </c>
@@ -5389,7 +5417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>426</v>
       </c>
@@ -5409,7 +5437,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>429</v>
       </c>
@@ -5429,7 +5457,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>431</v>
       </c>
@@ -5449,7 +5477,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>363</v>
@@ -5463,7 +5491,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -5477,7 +5505,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>354</v>
@@ -5491,7 +5519,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>356</v>
@@ -5505,7 +5533,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>357</v>
@@ -5519,7 +5547,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>358</v>
@@ -5533,7 +5561,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>359</v>
@@ -5547,7 +5575,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>366</v>
@@ -5561,7 +5589,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>367</v>
@@ -5575,7 +5603,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>368</v>
@@ -5589,7 +5617,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>369</v>
@@ -5603,7 +5631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>370</v>
@@ -5617,7 +5645,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>371</v>
@@ -5631,7 +5659,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>372</v>
@@ -5645,7 +5673,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>373</v>
@@ -5659,7 +5687,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>374</v>
@@ -5673,7 +5701,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>377</v>
@@ -5687,7 +5715,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>378</v>
@@ -5701,7 +5729,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>379</v>
@@ -5715,7 +5743,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>380</v>
@@ -5729,7 +5757,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>381</v>
@@ -5743,7 +5771,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>382</v>
@@ -5757,7 +5785,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>383</v>
@@ -5771,7 +5799,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>384</v>
@@ -5785,7 +5813,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>385</v>
@@ -5799,7 +5827,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>386</v>
@@ -5813,7 +5841,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>387</v>
@@ -5827,7 +5855,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>388</v>
@@ -5841,7 +5869,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>389</v>
@@ -5855,7 +5883,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>392</v>
@@ -5869,7 +5897,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>393</v>
@@ -5883,7 +5911,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>394</v>
@@ -5897,7 +5925,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>395</v>
@@ -5911,7 +5939,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>396</v>
@@ -5925,7 +5953,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>398</v>
@@ -5939,7 +5967,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>399</v>
@@ -5953,7 +5981,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>400</v>
@@ -5967,7 +5995,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>402</v>
@@ -5981,7 +6009,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>403</v>
@@ -5995,7 +6023,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>404</v>
@@ -6009,7 +6037,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>405</v>
@@ -6023,7 +6051,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>407</v>
@@ -6037,7 +6065,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>408</v>
@@ -6051,7 +6079,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>409</v>
@@ -6065,7 +6093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>411</v>
@@ -6079,7 +6107,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>412</v>
@@ -6093,7 +6121,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6101,7 +6129,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6109,7 +6137,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6117,7 +6145,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6125,7 +6153,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6133,7 +6161,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6141,7 +6169,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6149,7 +6177,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6157,7 +6185,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6165,7 +6193,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6173,7 +6201,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6181,7 +6209,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6189,7 +6217,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6197,7 +6225,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6205,7 +6233,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6213,7 +6241,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6221,7 +6249,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6229,7 +6257,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6237,7 +6265,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6245,7 +6273,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6253,7 +6281,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6263,7 +6291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>90</v>
       </c>
@@ -6286,7 +6314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>467</v>
       </c>
@@ -6306,7 +6334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>471</v>
       </c>
@@ -6326,7 +6354,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>470</v>
       </c>
@@ -6346,7 +6374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>478</v>
       </c>
@@ -6366,7 +6394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>477</v>
       </c>
@@ -6386,7 +6414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>482</v>
       </c>
@@ -6406,7 +6434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>486</v>
       </c>
@@ -6426,7 +6454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>489</v>
       </c>
@@ -6446,7 +6474,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>490</v>
       </c>
@@ -6466,7 +6494,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>493</v>
       </c>
@@ -6486,7 +6514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>497</v>
       </c>
@@ -6506,7 +6534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>499</v>
       </c>
@@ -6526,7 +6554,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>501</v>
       </c>
@@ -6546,7 +6574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>506</v>
       </c>
@@ -6564,7 +6592,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>71</v>
@@ -6578,7 +6606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>74</v>
@@ -6592,7 +6620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>73</v>
@@ -6606,7 +6634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>72</v>
@@ -6620,7 +6648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>75</v>
@@ -6634,7 +6662,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>77</v>
@@ -6648,7 +6676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>56</v>
@@ -6662,7 +6690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
         <v>57</v>
@@ -6676,7 +6704,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>101</v>
       </c>
@@ -6694,7 +6722,7 @@
       </c>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="54">
+    <row r="212" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>106</v>
@@ -6708,7 +6736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>465</v>
       </c>
@@ -6726,7 +6754,7 @@
       </c>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>474</v>
       </c>
@@ -6742,31 +6770,55 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="B216" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="F216" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="B217" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="F217" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6774,7 +6826,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6782,7 +6834,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6790,7 +6842,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6798,7 +6850,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6806,7 +6858,7 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6830,13 +6882,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>434</v>
       </c>
@@ -6844,7 +6896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>435</v>
       </c>
@@ -6852,7 +6904,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6860,7 +6912,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>437</v>
       </c>
@@ -6868,7 +6920,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>439</v>
       </c>
@@ -6876,7 +6928,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>442</v>
       </c>
@@ -6884,7 +6936,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>443</v>
       </c>
@@ -6892,7 +6944,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>445</v>
       </c>
@@ -6900,7 +6952,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>447</v>
       </c>
@@ -6908,12 +6960,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="13" t="s">
         <v>456</v>
       </c>
@@ -6921,7 +6973,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="12" t="s">
         <v>449</v>
       </c>
@@ -6929,7 +6981,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="12" t="s">
         <v>458</v>
       </c>
@@ -6937,7 +6989,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="12" t="s">
         <v>460</v>
       </c>
@@ -6945,7 +6997,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="12" t="s">
         <v>452</v>
       </c>
@@ -6953,7 +7005,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="12" t="s">
         <v>451</v>
       </c>
@@ -6961,7 +7013,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
         <v>450</v>
       </c>
@@ -6969,7 +7021,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="12" t="s">
         <v>459</v>
       </c>
@@ -6991,9 +7043,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0099BC-3DD8-4B53-A7EF-74506F774796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221C4363-2373-8949-818C-6A91CD79814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="518">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2067,10 +2067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방송통신대 2024-겨울 이산수항 01강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>알고리즘에 대한 정의와 표현 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2084,6 +2080,26 @@
   </si>
   <si>
     <t>20241209_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-09 23:05:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241209_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-09 23:48:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241209_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 이산수학 01강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2091,7 +2107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3287,14 +3303,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
@@ -3304,7 +3320,7 @@
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3324,7 +3340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3342,7 +3358,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3362,7 +3378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -3382,7 +3398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>143</v>
       </c>
@@ -3405,7 +3421,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>146</v>
       </c>
@@ -3425,7 +3441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3445,7 +3461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>152</v>
       </c>
@@ -3505,7 +3521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>155</v>
       </c>
@@ -3525,7 +3541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>158</v>
       </c>
@@ -3545,7 +3561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -3565,7 +3581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>162</v>
       </c>
@@ -3585,7 +3601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -3605,7 +3621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
@@ -3625,7 +3641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
@@ -3665,7 +3681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>177</v>
       </c>
@@ -3685,7 +3701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -3705,7 +3721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>182</v>
       </c>
@@ -3725,7 +3741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -3745,7 +3761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>187</v>
       </c>
@@ -3765,7 +3781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>188</v>
       </c>
@@ -3785,7 +3801,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
@@ -3805,7 +3821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
@@ -3825,7 +3841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
@@ -3845,7 +3861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>200</v>
       </c>
@@ -3865,7 +3881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>204</v>
       </c>
@@ -3885,7 +3901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>209</v>
       </c>
@@ -3905,7 +3921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>211</v>
       </c>
@@ -3925,7 +3941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>214</v>
       </c>
@@ -3945,7 +3961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>216</v>
       </c>
@@ -3965,7 +3981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>218</v>
       </c>
@@ -3985,7 +4001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>220</v>
       </c>
@@ -4005,7 +4021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>223</v>
       </c>
@@ -4025,7 +4041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>306</v>
       </c>
@@ -4045,7 +4061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>302</v>
       </c>
@@ -4065,7 +4081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>308</v>
       </c>
@@ -4085,7 +4101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>309</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>311</v>
@@ -4117,7 +4133,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>312</v>
@@ -4131,7 +4147,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>313</v>
@@ -4145,7 +4161,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>314</v>
@@ -4159,7 +4175,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>315</v>
@@ -4173,7 +4189,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>316</v>
@@ -4187,7 +4203,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>318</v>
@@ -4199,7 +4215,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>319</v>
@@ -4211,7 +4227,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>320</v>
@@ -4225,7 +4241,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>321</v>
@@ -4239,7 +4255,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>322</v>
@@ -4251,7 +4267,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>323</v>
@@ -4265,7 +4281,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>324</v>
@@ -4279,7 +4295,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>325</v>
@@ -4293,7 +4309,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>326</v>
@@ -4305,7 +4321,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>327</v>
@@ -4317,7 +4333,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>328</v>
@@ -4331,7 +4347,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>329</v>
@@ -4345,7 +4361,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>330</v>
@@ -4359,7 +4375,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>331</v>
@@ -4373,7 +4389,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>332</v>
@@ -4385,7 +4401,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>333</v>
@@ -4399,7 +4415,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>334</v>
@@ -4413,7 +4429,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>335</v>
@@ -4425,7 +4441,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>338</v>
@@ -4439,7 +4455,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>339</v>
@@ -4453,7 +4469,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>340</v>
@@ -4467,7 +4483,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>344</v>
@@ -4481,7 +4497,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>345</v>
@@ -4493,7 +4509,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>346</v>
@@ -4507,7 +4523,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>347</v>
@@ -4521,7 +4537,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>348</v>
@@ -4535,7 +4551,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>349</v>
@@ -4549,7 +4565,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>350</v>
@@ -4563,7 +4579,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>351</v>
@@ -4577,7 +4593,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>235</v>
       </c>
@@ -4597,7 +4613,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -4617,7 +4633,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -4637,7 +4653,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>242</v>
       </c>
@@ -4657,7 +4673,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>245</v>
       </c>
@@ -4677,7 +4693,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -4697,7 +4713,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -4717,7 +4733,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>253</v>
       </c>
@@ -4737,7 +4753,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>256</v>
       </c>
@@ -4757,7 +4773,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -4777,7 +4793,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4797,7 +4813,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -4817,7 +4833,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>266</v>
       </c>
@@ -4837,7 +4853,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -4857,7 +4873,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>271</v>
       </c>
@@ -4877,7 +4893,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>272</v>
       </c>
@@ -4897,7 +4913,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>273</v>
       </c>
@@ -4917,7 +4933,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>281</v>
       </c>
@@ -4937,7 +4953,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>285</v>
       </c>
@@ -4957,7 +4973,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>288</v>
       </c>
@@ -4977,7 +4993,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>297</v>
       </c>
@@ -4997,7 +5013,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>298</v>
       </c>
@@ -5017,7 +5033,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>299</v>
       </c>
@@ -5037,7 +5053,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>91</v>
       </c>
@@ -5057,7 +5073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>90</v>
       </c>
@@ -5077,7 +5093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5097,7 +5113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -5117,7 +5133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
@@ -5137,7 +5153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>98</v>
       </c>
@@ -5157,7 +5173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>110</v>
       </c>
@@ -5177,7 +5193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>111</v>
       </c>
@@ -5197,7 +5213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
@@ -5217,7 +5233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -5237,7 +5253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
@@ -5257,7 +5273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>132</v>
       </c>
@@ -5297,7 +5313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>134</v>
       </c>
@@ -5317,7 +5333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>136</v>
       </c>
@@ -5337,7 +5353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>138</v>
       </c>
@@ -5357,7 +5373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>418</v>
       </c>
@@ -5377,7 +5393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>422</v>
       </c>
@@ -5397,7 +5413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>424</v>
       </c>
@@ -5417,7 +5433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>426</v>
       </c>
@@ -5437,7 +5453,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>429</v>
       </c>
@@ -5457,7 +5473,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>431</v>
       </c>
@@ -5477,7 +5493,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>363</v>
@@ -5491,7 +5507,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>364</v>
@@ -5505,7 +5521,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>354</v>
@@ -5519,7 +5535,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>356</v>
@@ -5533,7 +5549,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>357</v>
@@ -5547,7 +5563,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>358</v>
@@ -5561,7 +5577,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>359</v>
@@ -5575,7 +5591,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>366</v>
@@ -5589,7 +5605,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>367</v>
@@ -5603,7 +5619,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>368</v>
@@ -5617,7 +5633,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>369</v>
@@ -5631,7 +5647,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>370</v>
@@ -5645,7 +5661,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>371</v>
@@ -5659,7 +5675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>372</v>
@@ -5673,7 +5689,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>373</v>
@@ -5687,7 +5703,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>374</v>
@@ -5701,7 +5717,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>377</v>
@@ -5715,7 +5731,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>378</v>
@@ -5729,7 +5745,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>379</v>
@@ -5743,7 +5759,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>380</v>
@@ -5757,7 +5773,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>381</v>
@@ -5771,7 +5787,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>382</v>
@@ -5785,7 +5801,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>383</v>
@@ -5799,7 +5815,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>384</v>
@@ -5813,7 +5829,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>385</v>
@@ -5827,7 +5843,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>386</v>
@@ -5841,7 +5857,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>387</v>
@@ -5855,7 +5871,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>388</v>
@@ -5869,7 +5885,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>389</v>
@@ -5883,7 +5899,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>392</v>
@@ -5897,7 +5913,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>393</v>
@@ -5911,7 +5927,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>394</v>
@@ -5925,7 +5941,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>395</v>
@@ -5939,7 +5955,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>396</v>
@@ -5953,7 +5969,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>398</v>
@@ -5967,7 +5983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>399</v>
@@ -5981,7 +5997,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>400</v>
@@ -5995,7 +6011,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>402</v>
@@ -6009,7 +6025,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>403</v>
@@ -6023,7 +6039,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>404</v>
@@ -6037,7 +6053,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>405</v>
@@ -6051,7 +6067,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>407</v>
@@ -6065,7 +6081,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>408</v>
@@ -6079,7 +6095,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>409</v>
@@ -6093,7 +6109,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>411</v>
@@ -6107,7 +6123,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>412</v>
@@ -6121,7 +6137,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6129,7 +6145,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6137,7 +6153,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6145,7 +6161,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6153,7 +6169,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6161,7 +6177,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6169,7 +6185,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6177,7 +6193,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6185,7 +6201,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6193,7 +6209,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6201,7 +6217,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6209,7 +6225,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6217,7 +6233,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6225,7 +6241,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6233,7 +6249,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6241,7 +6257,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6249,7 +6265,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6257,7 +6273,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6265,7 +6281,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6273,7 +6289,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6281,7 +6297,7 @@
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6291,7 +6307,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>90</v>
       </c>
@@ -6314,7 +6330,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
         <v>467</v>
       </c>
@@ -6334,7 +6350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
         <v>471</v>
       </c>
@@ -6354,7 +6370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
         <v>470</v>
       </c>
@@ -6374,7 +6390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
         <v>478</v>
       </c>
@@ -6394,7 +6410,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>477</v>
       </c>
@@ -6414,7 +6430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>482</v>
       </c>
@@ -6434,7 +6450,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" s="1" t="s">
         <v>486</v>
       </c>
@@ -6454,7 +6470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" s="1" t="s">
         <v>489</v>
       </c>
@@ -6474,7 +6490,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197" s="1" t="s">
         <v>490</v>
       </c>
@@ -6494,7 +6510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
         <v>493</v>
       </c>
@@ -6514,7 +6530,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>497</v>
       </c>
@@ -6534,7 +6550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
         <v>499</v>
       </c>
@@ -6554,7 +6570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>501</v>
       </c>
@@ -6574,7 +6590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
         <v>506</v>
       </c>
@@ -6592,7 +6608,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>71</v>
@@ -6606,7 +6622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>74</v>
@@ -6620,7 +6636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1" t="s">
         <v>73</v>
@@ -6634,7 +6650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1" t="s">
         <v>72</v>
@@ -6648,7 +6664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
         <v>75</v>
@@ -6662,7 +6678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>77</v>
@@ -6676,7 +6692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>56</v>
@@ -6690,7 +6706,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
         <v>57</v>
@@ -6704,7 +6720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
         <v>101</v>
       </c>
@@ -6722,7 +6738,7 @@
       </c>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="54">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
         <v>106</v>
@@ -6736,7 +6752,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
         <v>465</v>
       </c>
@@ -6754,7 +6770,7 @@
       </c>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
         <v>474</v>
       </c>
@@ -6770,9 +6786,9 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6">
       <c r="A215" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>508</v>
@@ -6781,44 +6797,56 @@
         <v>507</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="B216" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F216" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
+      <c r="D217" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F217" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6826,7 +6854,7 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6834,7 +6862,7 @@
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6842,7 +6870,7 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6850,7 +6878,7 @@
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6858,13 +6886,173 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -6882,13 +7070,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>434</v>
       </c>
@@ -6896,7 +7084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>435</v>
       </c>
@@ -6904,7 +7092,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6912,7 +7100,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>437</v>
       </c>
@@ -6920,7 +7108,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>439</v>
       </c>
@@ -6928,7 +7116,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>442</v>
       </c>
@@ -6936,7 +7124,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>443</v>
       </c>
@@ -6944,7 +7132,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>445</v>
       </c>
@@ -6952,7 +7140,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>447</v>
       </c>
@@ -6960,12 +7148,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="D12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="D13" s="13" t="s">
         <v>456</v>
       </c>
@@ -6973,7 +7161,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="D14" s="12" t="s">
         <v>449</v>
       </c>
@@ -6981,7 +7169,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="D15" s="12" t="s">
         <v>458</v>
       </c>
@@ -6989,7 +7177,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="D16" s="12" t="s">
         <v>460</v>
       </c>
@@ -6997,7 +7185,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" s="12" t="s">
         <v>452</v>
       </c>
@@ -7005,7 +7193,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" s="12" t="s">
         <v>451</v>
       </c>
@@ -7013,7 +7201,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>450</v>
       </c>
@@ -7021,7 +7209,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>459</v>
       </c>
@@ -7043,9 +7231,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221C4363-2373-8949-818C-6A91CD79814A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB35E2-2F9B-A548-930B-21AEE679038D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="525">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2100,6 +2100,34 @@
   </si>
   <si>
     <t>방송통신대 2024-겨울 이산수학 01강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스의 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database_system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 데이터베이스시스템 01강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터의 용량 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타데이터란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션이란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스와 데이터베이스 시스템 그리고 데이터베이스 관리 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3307,7 +3335,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3317,7 +3345,7 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6888,43 +6916,73 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="B223" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
+      <c r="F223" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="B224" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
+      <c r="F224" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
+      <c r="F225" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="B226" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
+      <c r="F226" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="B227" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>519</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
+      <c r="F227" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0099BC-3DD8-4B53-A7EF-74506F774796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18402B3-ED93-42A4-B8B6-FCDE8F620126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="518">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,10 +355,6 @@
   </si>
   <si>
     <t>방송통신대 2024-02 자료구조 15강</t>
-  </si>
-  <si>
-    <t>방송통신대 2024-02 컴퓨터구조 1강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자료구조는 책보고 정리하기</t>
@@ -2084,6 +2080,26 @@
   </si>
   <si>
     <t>20241209_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 딕셔너리 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-10 12:49:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241210_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3287,11 +3303,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A215" sqref="A215"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3366,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
@@ -3364,16 +3380,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -3384,16 +3400,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -3402,21 +3418,21 @@
         <v>25</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -3433,7 +3449,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -3453,7 +3469,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3476,7 +3492,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -3487,16 +3503,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -3507,16 +3523,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -3527,16 +3543,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -3547,16 +3563,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -3567,16 +3583,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -3587,16 +3603,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -3607,16 +3623,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -3627,16 +3643,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -3647,16 +3663,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
@@ -3667,16 +3683,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
@@ -3687,16 +3703,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -3707,16 +3723,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
@@ -3727,16 +3743,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -3747,16 +3763,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -3767,16 +3783,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
@@ -3787,16 +3803,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>13</v>
@@ -3807,16 +3823,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -3827,16 +3843,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
@@ -3847,16 +3863,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>13</v>
@@ -3867,16 +3883,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
@@ -3887,16 +3903,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>13</v>
@@ -3907,16 +3923,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>13</v>
@@ -3927,16 +3943,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>13</v>
@@ -3947,16 +3963,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>13</v>
@@ -3967,16 +3983,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
@@ -3987,16 +4003,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>13</v>
@@ -4007,16 +4023,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>13</v>
@@ -4027,19 +4043,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>40</v>
@@ -4047,19 +4063,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
@@ -4067,19 +4083,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>40</v>
@@ -4087,19 +4103,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>40</v>
@@ -4108,950 +4124,950 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E77" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D99" s="7">
         <v>45585</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>41</v>
@@ -5059,19 +5075,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D100" s="7">
         <v>45586</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>41</v>
@@ -5079,19 +5095,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>41</v>
@@ -5099,16 +5115,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>13</v>
@@ -5119,16 +5135,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -5139,16 +5155,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -5159,16 +5175,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -5179,16 +5195,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
@@ -5199,19 +5215,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>42</v>
@@ -5219,16 +5235,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>13</v>
@@ -5239,16 +5255,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>13</v>
@@ -5259,36 +5275,36 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>13</v>
@@ -5299,16 +5315,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>13</v>
@@ -5319,16 +5335,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>13</v>
@@ -5339,16 +5355,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>13</v>
@@ -5359,19 +5375,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>27</v>
@@ -5379,19 +5395,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>27</v>
@@ -5399,19 +5415,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>27</v>
@@ -5419,1452 +5435,1392 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F119" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F181" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="B182" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F182" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="B183" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F183" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="B184" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F184" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="B185" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F185" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="B186" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F186" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="B187" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
       <c r="F188" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>467</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
-        <v>462</v>
+        <v>57</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" s="1" t="s">
+      <c r="E192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>51</v>
+        <v>472</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>47</v>
+        <v>506</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>481</v>
+        <v>13</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>61</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
-        <v>52</v>
+        <v>510</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>484</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>62</v>
+        <v>508</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>489</v>
-      </c>
+      <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>487</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
       <c r="F196" s="1" t="s">
-        <v>63</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>67</v>
+        <v>513</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>47</v>
+        <v>515</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="F201" s="1"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1" t="s">
-        <v>504</v>
-      </c>
+      <c r="F202" s="1"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
-      <c r="B203" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
-      <c r="B204" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
-      <c r="B205" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F205" s="1"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
-      <c r="B206" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F206" s="1"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-      <c r="B207" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
-      <c r="B208" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="F208" s="1"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-      <c r="B209" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F209" s="1"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
-      <c r="B210" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
-      <c r="B212" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="F212" s="1"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -6890,7 +6846,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -6898,135 +6854,135 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D93801-6A46-4CF4-83D4-B5CAB09393D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E24CE-24EB-3442-BE8D-EA8C0EDFC126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="523">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2100,6 +2100,26 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 시스템의 이해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241211_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 용량의 단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>database_system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-11 22:58:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2107,7 +2127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3306,11 +3326,11 @@
   <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B201" sqref="B201"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
@@ -3320,7 +3340,7 @@
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3340,7 +3360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3358,7 +3378,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3378,7 +3398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3398,7 +3418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -3421,7 +3441,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -3441,7 +3461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3481,7 +3501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3501,7 +3521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -3521,7 +3541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -3541,7 +3561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -3561,7 +3581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -3581,7 +3601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
@@ -3601,7 +3621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -3621,7 +3641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -3641,7 +3661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
@@ -3661,7 +3681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -3681,7 +3701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
@@ -3701,7 +3721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>178</v>
       </c>
@@ -3721,7 +3741,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>181</v>
       </c>
@@ -3741,7 +3761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
@@ -3761,7 +3781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
@@ -3781,7 +3801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -3801,7 +3821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
@@ -3821,7 +3841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>193</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -3861,7 +3881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -3881,7 +3901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -3901,7 +3921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -3921,7 +3941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
@@ -3941,7 +3961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
@@ -3961,7 +3981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>215</v>
       </c>
@@ -3981,7 +4001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>217</v>
       </c>
@@ -4001,7 +4021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>219</v>
       </c>
@@ -4021,7 +4041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -4041,7 +4061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>305</v>
       </c>
@@ -4061,7 +4081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>301</v>
       </c>
@@ -4081,7 +4101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>307</v>
       </c>
@@ -4101,7 +4121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>308</v>
       </c>
@@ -4121,7 +4141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>310</v>
@@ -4133,7 +4153,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>311</v>
@@ -4147,7 +4167,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>312</v>
@@ -4161,7 +4181,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>313</v>
@@ -4175,7 +4195,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>314</v>
@@ -4189,7 +4209,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>315</v>
@@ -4203,7 +4223,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>317</v>
@@ -4215,7 +4235,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>318</v>
@@ -4227,7 +4247,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>319</v>
@@ -4241,7 +4261,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>320</v>
@@ -4255,7 +4275,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>321</v>
@@ -4267,7 +4287,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>322</v>
@@ -4281,7 +4301,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>323</v>
@@ -4295,7 +4315,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>324</v>
@@ -4309,7 +4329,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>325</v>
@@ -4321,7 +4341,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>326</v>
@@ -4333,7 +4353,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>327</v>
@@ -4347,7 +4367,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>328</v>
@@ -4361,7 +4381,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>329</v>
@@ -4375,7 +4395,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>330</v>
@@ -4389,7 +4409,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>331</v>
@@ -4401,7 +4421,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>332</v>
@@ -4415,7 +4435,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>333</v>
@@ -4429,7 +4449,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>334</v>
@@ -4441,7 +4461,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>337</v>
@@ -4455,7 +4475,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>338</v>
@@ -4469,7 +4489,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>339</v>
@@ -4483,7 +4503,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>343</v>
@@ -4497,7 +4517,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>344</v>
@@ -4509,7 +4529,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>345</v>
@@ -4523,7 +4543,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>346</v>
@@ -4537,7 +4557,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>347</v>
@@ -4551,7 +4571,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>348</v>
@@ -4565,7 +4585,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>349</v>
@@ -4579,7 +4599,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>350</v>
@@ -4593,7 +4613,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -4613,7 +4633,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>236</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>239</v>
       </c>
@@ -4653,7 +4673,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>241</v>
       </c>
@@ -4673,7 +4693,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>244</v>
       </c>
@@ -4693,7 +4713,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>248</v>
       </c>
@@ -4713,7 +4733,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>251</v>
       </c>
@@ -4733,7 +4753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>252</v>
       </c>
@@ -4753,7 +4773,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>255</v>
       </c>
@@ -4773,7 +4793,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>256</v>
       </c>
@@ -4793,7 +4813,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -4813,7 +4833,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -4833,7 +4853,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>265</v>
       </c>
@@ -4853,7 +4873,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>268</v>
       </c>
@@ -4873,7 +4893,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>270</v>
       </c>
@@ -4893,7 +4913,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>271</v>
       </c>
@@ -4913,7 +4933,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
@@ -4933,7 +4953,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>280</v>
       </c>
@@ -4953,7 +4973,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>284</v>
       </c>
@@ -4973,7 +4993,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -4993,7 +5013,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
@@ -5013,7 +5033,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>297</v>
       </c>
@@ -5033,7 +5053,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>298</v>
       </c>
@@ -5053,7 +5073,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>90</v>
       </c>
@@ -5073,7 +5093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5093,7 +5113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>88</v>
       </c>
@@ -5113,7 +5133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5133,7 +5153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>94</v>
       </c>
@@ -5153,7 +5173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>97</v>
       </c>
@@ -5173,7 +5193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -5193,7 +5213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -5213,7 +5233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -5233,7 +5253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -5253,7 +5273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -5273,7 +5293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -5293,7 +5313,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -5313,7 +5333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>133</v>
       </c>
@@ -5333,7 +5353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>135</v>
       </c>
@@ -5353,7 +5373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -5373,7 +5393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>417</v>
       </c>
@@ -5393,7 +5413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>421</v>
       </c>
@@ -5413,7 +5433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>423</v>
       </c>
@@ -5433,7 +5453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>425</v>
       </c>
@@ -5453,7 +5473,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>428</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>430</v>
       </c>
@@ -5493,7 +5513,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>362</v>
@@ -5507,7 +5527,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>363</v>
@@ -5521,7 +5541,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>353</v>
@@ -5535,7 +5555,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>355</v>
@@ -5549,7 +5569,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>356</v>
@@ -5563,7 +5583,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>357</v>
@@ -5577,7 +5597,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>358</v>
@@ -5591,7 +5611,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>365</v>
@@ -5605,7 +5625,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>366</v>
@@ -5619,7 +5639,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>367</v>
@@ -5633,7 +5653,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>368</v>
@@ -5647,7 +5667,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>369</v>
@@ -5661,7 +5681,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>370</v>
@@ -5675,7 +5695,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>371</v>
@@ -5689,7 +5709,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>372</v>
@@ -5703,7 +5723,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>373</v>
@@ -5717,7 +5737,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>376</v>
@@ -5731,7 +5751,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>377</v>
@@ -5745,7 +5765,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>378</v>
@@ -5759,7 +5779,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>379</v>
@@ -5773,7 +5793,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>380</v>
@@ -5787,7 +5807,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>381</v>
@@ -5801,7 +5821,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>382</v>
@@ -5815,7 +5835,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>383</v>
@@ -5829,7 +5849,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>384</v>
@@ -5843,7 +5863,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>385</v>
@@ -5857,7 +5877,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>386</v>
@@ -5871,7 +5891,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>387</v>
@@ -5885,7 +5905,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>388</v>
@@ -5899,7 +5919,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>391</v>
@@ -5913,7 +5933,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>392</v>
@@ -5927,7 +5947,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>393</v>
@@ -5941,7 +5961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>394</v>
@@ -5955,7 +5975,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>395</v>
@@ -5969,7 +5989,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>397</v>
@@ -5983,7 +6003,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>398</v>
@@ -5997,7 +6017,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>399</v>
@@ -6011,7 +6031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>401</v>
@@ -6025,7 +6045,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>402</v>
@@ -6039,7 +6059,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>403</v>
@@ -6053,7 +6073,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>404</v>
@@ -6067,7 +6087,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>406</v>
@@ -6081,7 +6101,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>407</v>
@@ -6095,7 +6115,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>408</v>
@@ -6109,7 +6129,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>410</v>
@@ -6123,7 +6143,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>411</v>
@@ -6137,7 +6157,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>89</v>
       </c>
@@ -6160,7 +6180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>466</v>
       </c>
@@ -6180,7 +6200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>470</v>
       </c>
@@ -6200,7 +6220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>469</v>
       </c>
@@ -6220,7 +6240,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>477</v>
       </c>
@@ -6240,7 +6260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>476</v>
       </c>
@@ -6260,7 +6280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>481</v>
       </c>
@@ -6280,7 +6300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>485</v>
       </c>
@@ -6300,7 +6320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>488</v>
       </c>
@@ -6320,7 +6340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>489</v>
       </c>
@@ -6340,7 +6360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>492</v>
       </c>
@@ -6360,7 +6380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>496</v>
       </c>
@@ -6380,7 +6400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>498</v>
       </c>
@@ -6400,7 +6420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>500</v>
       </c>
@@ -6420,7 +6440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>505</v>
       </c>
@@ -6438,7 +6458,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>71</v>
@@ -6452,7 +6472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>74</v>
@@ -6466,7 +6486,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>73</v>
@@ -6480,7 +6500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>72</v>
@@ -6494,7 +6514,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>75</v>
@@ -6508,7 +6528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>77</v>
@@ -6522,7 +6542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>56</v>
@@ -6536,7 +6556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>57</v>
@@ -6550,7 +6570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>100</v>
       </c>
@@ -6568,7 +6588,7 @@
       </c>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="54">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>105</v>
@@ -6582,7 +6602,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>464</v>
       </c>
@@ -6602,7 +6622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>473</v>
       </c>
@@ -6620,7 +6640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>512</v>
       </c>
@@ -6640,7 +6660,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>510</v>
@@ -6654,7 +6674,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>509</v>
@@ -6668,7 +6688,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6676,7 +6696,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6684,7 +6704,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6692,7 +6712,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6700,7 +6720,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>516</v>
       </c>
@@ -6718,23 +6738,37 @@
       </c>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
+      <c r="B203" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6742,7 +6776,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6750,7 +6784,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6758,7 +6792,7 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6766,7 +6800,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6774,7 +6808,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6782,7 +6816,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6790,7 +6824,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6798,7 +6832,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6806,7 +6840,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6814,7 +6848,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6838,13 +6872,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>433</v>
       </c>
@@ -6852,7 +6886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>434</v>
       </c>
@@ -6860,7 +6894,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -6868,7 +6902,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>436</v>
       </c>
@@ -6876,7 +6910,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>438</v>
       </c>
@@ -6884,7 +6918,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>441</v>
       </c>
@@ -6892,7 +6926,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6900,7 +6934,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
@@ -6908,7 +6942,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>446</v>
       </c>
@@ -6916,12 +6950,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="D12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="D13" s="13" t="s">
         <v>455</v>
       </c>
@@ -6929,7 +6963,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="D14" s="12" t="s">
         <v>448</v>
       </c>
@@ -6937,7 +6971,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="D15" s="12" t="s">
         <v>457</v>
       </c>
@@ -6945,7 +6979,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="D16" s="12" t="s">
         <v>459</v>
       </c>
@@ -6953,7 +6987,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" s="12" t="s">
         <v>451</v>
       </c>
@@ -6961,7 +6995,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" s="12" t="s">
         <v>450</v>
       </c>
@@ -6969,7 +7003,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>449</v>
       </c>
@@ -6977,7 +7011,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>458</v>
       </c>
@@ -6999,9 +7033,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485E24CE-24EB-3442-BE8D-EA8C0EDFC126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E1662C-0EAF-CF40-A884-0F12743C6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="525">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,6 +2120,14 @@
   </si>
   <si>
     <t>2024-12-11 22:58:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3323,11 +3331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D203" sqref="D203"/>
+      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6765,12 +6773,16 @@
         <v>521</v>
       </c>
       <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
+      <c r="E203" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6855,6 +6867,14 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E1662C-0EAF-CF40-A884-0F12743C6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99811B30-549A-4358-88EE-012C9F13109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="529">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2128,6 +2128,22 @@
   </si>
   <si>
     <t>작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241218_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jellyfin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2135,7 +2151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3335,10 +3351,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B202" sqref="B202"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
@@ -3348,7 +3364,7 @@
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3368,7 +3384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3386,7 +3402,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3406,7 +3422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3426,7 +3442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -3449,7 +3465,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -3469,7 +3485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3509,7 +3525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3529,7 +3545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -3549,7 +3565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -3569,7 +3585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -3589,7 +3605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -3609,7 +3625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
@@ -3629,7 +3645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -3649,7 +3665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -3669,7 +3685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
@@ -3689,7 +3705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -3709,7 +3725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
@@ -3729,7 +3745,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>178</v>
       </c>
@@ -3749,7 +3765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>181</v>
       </c>
@@ -3769,7 +3785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
@@ -3789,7 +3805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
@@ -3809,7 +3825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -3829,7 +3845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
@@ -3849,7 +3865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>193</v>
       </c>
@@ -3869,7 +3885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -3889,7 +3905,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -3909,7 +3925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -3929,7 +3945,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -3949,7 +3965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
@@ -3989,7 +4005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>215</v>
       </c>
@@ -4009,7 +4025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>217</v>
       </c>
@@ -4029,7 +4045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>219</v>
       </c>
@@ -4049,7 +4065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -4069,7 +4085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>305</v>
       </c>
@@ -4089,7 +4105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>301</v>
       </c>
@@ -4109,7 +4125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>307</v>
       </c>
@@ -4129,7 +4145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>308</v>
       </c>
@@ -4149,7 +4165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>310</v>
@@ -4161,7 +4177,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>311</v>
@@ -4175,7 +4191,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>312</v>
@@ -4189,7 +4205,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>313</v>
@@ -4203,7 +4219,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>314</v>
@@ -4217,7 +4233,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>315</v>
@@ -4231,7 +4247,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>317</v>
@@ -4243,7 +4259,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>318</v>
@@ -4255,7 +4271,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>319</v>
@@ -4269,7 +4285,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>320</v>
@@ -4283,7 +4299,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>321</v>
@@ -4295,7 +4311,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>322</v>
@@ -4309,7 +4325,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>323</v>
@@ -4323,7 +4339,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>324</v>
@@ -4337,7 +4353,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>325</v>
@@ -4349,7 +4365,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>326</v>
@@ -4361,7 +4377,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>327</v>
@@ -4375,7 +4391,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>328</v>
@@ -4389,7 +4405,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>329</v>
@@ -4403,7 +4419,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>330</v>
@@ -4417,7 +4433,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>331</v>
@@ -4429,7 +4445,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>332</v>
@@ -4443,7 +4459,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>333</v>
@@ -4457,7 +4473,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>334</v>
@@ -4469,7 +4485,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>337</v>
@@ -4483,7 +4499,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>338</v>
@@ -4497,7 +4513,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>339</v>
@@ -4511,7 +4527,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>343</v>
@@ -4525,7 +4541,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>344</v>
@@ -4537,7 +4553,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>345</v>
@@ -4551,7 +4567,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>346</v>
@@ -4565,7 +4581,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>347</v>
@@ -4579,7 +4595,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>348</v>
@@ -4593,7 +4609,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>349</v>
@@ -4607,7 +4623,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>350</v>
@@ -4621,7 +4637,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -4641,7 +4657,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>236</v>
       </c>
@@ -4661,7 +4677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>239</v>
       </c>
@@ -4681,7 +4697,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>241</v>
       </c>
@@ -4701,7 +4717,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>244</v>
       </c>
@@ -4721,7 +4737,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>248</v>
       </c>
@@ -4741,7 +4757,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>251</v>
       </c>
@@ -4761,7 +4777,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>252</v>
       </c>
@@ -4781,7 +4797,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>255</v>
       </c>
@@ -4801,7 +4817,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>256</v>
       </c>
@@ -4821,7 +4837,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -4841,7 +4857,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -4861,7 +4877,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>265</v>
       </c>
@@ -4881,7 +4897,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>268</v>
       </c>
@@ -4901,7 +4917,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>270</v>
       </c>
@@ -4921,7 +4937,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>271</v>
       </c>
@@ -4941,7 +4957,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>280</v>
       </c>
@@ -4981,7 +4997,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>284</v>
       </c>
@@ -5001,7 +5017,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -5021,7 +5037,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
@@ -5041,7 +5057,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>297</v>
       </c>
@@ -5061,7 +5077,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>298</v>
       </c>
@@ -5081,7 +5097,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>90</v>
       </c>
@@ -5101,7 +5117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5121,7 +5137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>88</v>
       </c>
@@ -5141,7 +5157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5161,7 +5177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>94</v>
       </c>
@@ -5181,7 +5197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>97</v>
       </c>
@@ -5201,7 +5217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -5221,7 +5237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -5241,7 +5257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -5261,7 +5277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -5281,7 +5297,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -5301,7 +5317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -5321,7 +5337,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -5341,7 +5357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>133</v>
       </c>
@@ -5361,7 +5377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>135</v>
       </c>
@@ -5381,7 +5397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -5401,7 +5417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>417</v>
       </c>
@@ -5421,7 +5437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>421</v>
       </c>
@@ -5441,7 +5457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>423</v>
       </c>
@@ -5461,7 +5477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>425</v>
       </c>
@@ -5481,7 +5497,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>428</v>
       </c>
@@ -5501,7 +5517,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>430</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>362</v>
@@ -5535,7 +5551,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>363</v>
@@ -5549,7 +5565,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>353</v>
@@ -5563,7 +5579,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>355</v>
@@ -5577,7 +5593,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>356</v>
@@ -5591,7 +5607,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>357</v>
@@ -5605,7 +5621,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>358</v>
@@ -5619,7 +5635,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>365</v>
@@ -5633,7 +5649,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>366</v>
@@ -5647,7 +5663,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>367</v>
@@ -5661,7 +5677,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>368</v>
@@ -5675,7 +5691,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>369</v>
@@ -5689,7 +5705,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>370</v>
@@ -5703,7 +5719,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>371</v>
@@ -5717,7 +5733,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>372</v>
@@ -5731,7 +5747,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>373</v>
@@ -5745,7 +5761,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>376</v>
@@ -5759,7 +5775,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>377</v>
@@ -5773,7 +5789,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>378</v>
@@ -5787,7 +5803,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>379</v>
@@ -5801,7 +5817,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>380</v>
@@ -5815,7 +5831,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>381</v>
@@ -5829,7 +5845,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>382</v>
@@ -5843,7 +5859,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>383</v>
@@ -5857,7 +5873,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>384</v>
@@ -5871,7 +5887,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>385</v>
@@ -5885,7 +5901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>386</v>
@@ -5899,7 +5915,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>387</v>
@@ -5913,7 +5929,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>388</v>
@@ -5927,7 +5943,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>391</v>
@@ -5941,7 +5957,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>392</v>
@@ -5955,7 +5971,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>393</v>
@@ -5969,7 +5985,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>394</v>
@@ -5983,7 +5999,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>395</v>
@@ -5997,7 +6013,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>397</v>
@@ -6011,7 +6027,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>398</v>
@@ -6025,7 +6041,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>399</v>
@@ -6039,7 +6055,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>401</v>
@@ -6053,7 +6069,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>402</v>
@@ -6067,7 +6083,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>403</v>
@@ -6081,7 +6097,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>404</v>
@@ -6095,7 +6111,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>406</v>
@@ -6109,7 +6125,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>407</v>
@@ -6123,7 +6139,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>408</v>
@@ -6137,7 +6153,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>410</v>
@@ -6151,7 +6167,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>411</v>
@@ -6165,7 +6181,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>89</v>
       </c>
@@ -6188,7 +6204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>466</v>
       </c>
@@ -6208,7 +6224,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>470</v>
       </c>
@@ -6228,7 +6244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>469</v>
       </c>
@@ -6248,7 +6264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>477</v>
       </c>
@@ -6268,7 +6284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>476</v>
       </c>
@@ -6288,7 +6304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>481</v>
       </c>
@@ -6308,7 +6324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>485</v>
       </c>
@@ -6328,7 +6344,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>488</v>
       </c>
@@ -6348,7 +6364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>489</v>
       </c>
@@ -6368,7 +6384,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>492</v>
       </c>
@@ -6388,7 +6404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>496</v>
       </c>
@@ -6408,7 +6424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>498</v>
       </c>
@@ -6428,7 +6444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>500</v>
       </c>
@@ -6448,7 +6464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>505</v>
       </c>
@@ -6466,7 +6482,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>71</v>
@@ -6480,7 +6496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>74</v>
@@ -6494,7 +6510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>73</v>
@@ -6508,7 +6524,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>72</v>
@@ -6522,7 +6538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>75</v>
@@ -6536,7 +6552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>77</v>
@@ -6550,7 +6566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>56</v>
@@ -6564,7 +6580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>57</v>
@@ -6578,7 +6594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>100</v>
       </c>
@@ -6596,7 +6612,7 @@
       </c>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="54">
+    <row r="191" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>105</v>
@@ -6610,7 +6626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>464</v>
       </c>
@@ -6630,7 +6646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>473</v>
       </c>
@@ -6648,7 +6664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>512</v>
       </c>
@@ -6668,7 +6684,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>510</v>
@@ -6682,7 +6698,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>509</v>
@@ -6696,7 +6712,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6704,7 +6720,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6712,7 +6728,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6720,7 +6736,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6728,7 +6744,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>516</v>
       </c>
@@ -6746,7 +6762,7 @@
       </c>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>519</v>
       </c>
@@ -6764,7 +6780,7 @@
       </c>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>518</v>
@@ -6778,7 +6794,7 @@
       </c>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>523</v>
@@ -6788,7 +6804,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6796,15 +6812,23 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
+      <c r="E206" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6812,7 +6836,7 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6820,7 +6844,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6828,7 +6852,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6836,7 +6860,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6844,7 +6868,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6852,7 +6876,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6860,7 +6884,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6868,7 +6892,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6892,13 +6916,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>433</v>
       </c>
@@ -6906,7 +6930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>434</v>
       </c>
@@ -6914,7 +6938,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -6922,7 +6946,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>436</v>
       </c>
@@ -6930,7 +6954,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>438</v>
       </c>
@@ -6938,7 +6962,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>441</v>
       </c>
@@ -6946,7 +6970,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6954,7 +6978,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
@@ -6962,7 +6986,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>446</v>
       </c>
@@ -6970,12 +6994,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="13" t="s">
         <v>455</v>
       </c>
@@ -6983,7 +7007,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="12" t="s">
         <v>448</v>
       </c>
@@ -6991,7 +7015,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="12" t="s">
         <v>457</v>
       </c>
@@ -6999,7 +7023,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="12" t="s">
         <v>459</v>
       </c>
@@ -7007,7 +7031,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="12" t="s">
         <v>451</v>
       </c>
@@ -7015,7 +7039,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="12" t="s">
         <v>450</v>
       </c>
@@ -7023,7 +7047,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
         <v>449</v>
       </c>
@@ -7031,7 +7055,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="12" t="s">
         <v>458</v>
       </c>
@@ -7053,9 +7077,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99811B30-549A-4358-88EE-012C9F13109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6888DAB2-80FC-424D-BC8D-E060E28B6D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="531">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2135,15 +2135,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jellyfin</t>
+    <t>Jellyfin 개인 스트리밍 서버 (오픈소스 동영상 재생 플랫폼폼) 구축하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-20 13:10:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241220_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudbeaver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작성중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3351,7 +3359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6820,20 +6828,30 @@
         <v>526</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="B207" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
+      <c r="E207" s="1" t="s">
+        <v>530</v>
+      </c>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6888DAB2-80FC-424D-BC8D-E060E28B6D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E598A32-EE2E-9B4C-9A09-3295CCC941FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="531">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2143,15 +2143,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20241220_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloudbeaver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성중</t>
+    <t>2024-12-21 22:08:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241221_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudbeaver 웹 기반 DB 관리 도구 DB툴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2159,7 +2159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2279,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2308,6 +2308,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3358,11 +3359,11 @@
   <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A206" sqref="A206"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
@@ -3372,7 +3373,7 @@
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3411,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>164</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>170</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>176</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>178</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>181</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>187</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>193</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>197</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>199</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>213</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>215</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
         <v>217</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
         <v>219</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
         <v>222</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
         <v>305</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>301</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>307</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>308</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>310</v>
@@ -4185,7 +4186,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>311</v>
@@ -4199,7 +4200,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>312</v>
@@ -4213,7 +4214,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>313</v>
@@ -4227,7 +4228,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>314</v>
@@ -4241,7 +4242,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>315</v>
@@ -4255,7 +4256,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>317</v>
@@ -4267,7 +4268,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>318</v>
@@ -4279,7 +4280,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>319</v>
@@ -4293,7 +4294,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>320</v>
@@ -4307,7 +4308,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>321</v>
@@ -4319,7 +4320,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>322</v>
@@ -4333,7 +4334,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>323</v>
@@ -4347,7 +4348,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>324</v>
@@ -4361,7 +4362,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>325</v>
@@ -4373,7 +4374,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>326</v>
@@ -4385,7 +4386,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>327</v>
@@ -4399,7 +4400,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>328</v>
@@ -4413,7 +4414,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>329</v>
@@ -4427,7 +4428,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>330</v>
@@ -4441,7 +4442,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>331</v>
@@ -4453,7 +4454,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>332</v>
@@ -4467,7 +4468,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>333</v>
@@ -4481,7 +4482,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>334</v>
@@ -4493,7 +4494,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>337</v>
@@ -4507,7 +4508,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>338</v>
@@ -4521,7 +4522,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>339</v>
@@ -4535,7 +4536,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>343</v>
@@ -4549,7 +4550,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>344</v>
@@ -4561,7 +4562,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>345</v>
@@ -4575,7 +4576,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>346</v>
@@ -4589,7 +4590,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>347</v>
@@ -4603,7 +4604,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>348</v>
@@ -4617,7 +4618,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>349</v>
@@ -4631,7 +4632,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>350</v>
@@ -4645,7 +4646,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>236</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>239</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>241</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>244</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>248</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>251</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>252</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>255</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>256</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>263</v>
       </c>
@@ -4885,7 +4886,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>265</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>268</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>270</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>271</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>280</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>284</v>
       </c>
@@ -5025,7 +5026,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>287</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>297</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>298</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>90</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>88</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>94</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>97</v>
       </c>
@@ -5225,7 +5226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -5365,7 +5366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>133</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
         <v>135</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
         <v>417</v>
       </c>
@@ -5445,7 +5446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
         <v>421</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
         <v>423</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
         <v>425</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
         <v>428</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
         <v>430</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
         <v>362</v>
@@ -5559,7 +5560,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>363</v>
@@ -5573,7 +5574,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>353</v>
@@ -5587,7 +5588,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
         <v>355</v>
@@ -5601,7 +5602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
         <v>356</v>
@@ -5615,7 +5616,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
         <v>357</v>
@@ -5629,7 +5630,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
         <v>358</v>
@@ -5643,7 +5644,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
         <v>365</v>
@@ -5657,7 +5658,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
         <v>366</v>
@@ -5671,7 +5672,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
         <v>367</v>
@@ -5685,7 +5686,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
         <v>368</v>
@@ -5699,7 +5700,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
         <v>369</v>
@@ -5713,7 +5714,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>370</v>
@@ -5727,7 +5728,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>371</v>
@@ -5741,7 +5742,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
         <v>372</v>
@@ -5755,7 +5756,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
         <v>373</v>
@@ -5769,7 +5770,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
         <v>376</v>
@@ -5783,7 +5784,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>377</v>
@@ -5797,7 +5798,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>378</v>
@@ -5811,7 +5812,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>379</v>
@@ -5825,7 +5826,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>380</v>
@@ -5839,7 +5840,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>381</v>
@@ -5853,7 +5854,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
         <v>382</v>
@@ -5867,7 +5868,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
         <v>383</v>
@@ -5881,7 +5882,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
         <v>384</v>
@@ -5895,7 +5896,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
         <v>385</v>
@@ -5909,7 +5910,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>386</v>
@@ -5923,7 +5924,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
         <v>387</v>
@@ -5937,7 +5938,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
         <v>388</v>
@@ -5951,7 +5952,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
         <v>391</v>
@@ -5965,7 +5966,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
         <v>392</v>
@@ -5979,7 +5980,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
         <v>393</v>
@@ -5993,7 +5994,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
         <v>394</v>
@@ -6007,7 +6008,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
         <v>395</v>
@@ -6021,7 +6022,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
         <v>397</v>
@@ -6035,7 +6036,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
         <v>398</v>
@@ -6049,7 +6050,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
         <v>399</v>
@@ -6063,7 +6064,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>401</v>
@@ -6077,7 +6078,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
         <v>402</v>
@@ -6091,7 +6092,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
         <v>403</v>
@@ -6105,7 +6106,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
         <v>404</v>
@@ -6119,7 +6120,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
         <v>406</v>
@@ -6133,7 +6134,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
         <v>407</v>
@@ -6147,7 +6148,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
         <v>408</v>
@@ -6161,7 +6162,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
         <v>410</v>
@@ -6175,7 +6176,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
         <v>411</v>
@@ -6189,7 +6190,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>89</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
         <v>466</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>470</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
         <v>469</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>477</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
         <v>476</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
         <v>481</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
         <v>485</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
         <v>488</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
         <v>489</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
         <v>492</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
         <v>496</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
         <v>498</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
         <v>500</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
         <v>505</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
         <v>71</v>
@@ -6504,7 +6505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
         <v>74</v>
@@ -6518,7 +6519,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
         <v>73</v>
@@ -6532,7 +6533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
         <v>72</v>
@@ -6546,7 +6547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
         <v>75</v>
@@ -6560,7 +6561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
         <v>77</v>
@@ -6574,7 +6575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
         <v>56</v>
@@ -6588,7 +6589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
         <v>57</v>
@@ -6602,7 +6603,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" s="1" t="s">
         <v>100</v>
       </c>
@@ -6620,7 +6621,7 @@
       </c>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="54">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
         <v>105</v>
@@ -6634,7 +6635,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
         <v>464</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
         <v>473</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
         <v>512</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
         <v>510</v>
@@ -6706,7 +6707,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
         <v>509</v>
@@ -6720,7 +6721,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6728,7 +6729,7 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6736,7 +6737,7 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6744,7 +6745,7 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6752,7 +6753,7 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
         <v>516</v>
       </c>
@@ -6770,7 +6771,7 @@
       </c>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
         <v>519</v>
       </c>
@@ -6788,7 +6789,7 @@
       </c>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
         <v>518</v>
@@ -6802,7 +6803,7 @@
       </c>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6">
       <c r="A204" s="1"/>
       <c r="B204" s="1" t="s">
         <v>523</v>
@@ -6812,7 +6813,7 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6820,7 +6821,7 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
         <v>525</v>
       </c>
@@ -6838,23 +6839,25 @@
       </c>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D207" s="1"/>
+      <c r="D207" s="14" t="s">
+        <v>528</v>
+      </c>
       <c r="E207" s="1" t="s">
-        <v>530</v>
+        <v>13</v>
       </c>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6862,7 +6865,7 @@
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6870,7 +6873,7 @@
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6878,7 +6881,7 @@
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6886,7 +6889,7 @@
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6894,7 +6897,7 @@
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6902,7 +6905,7 @@
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6910,7 +6913,7 @@
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6934,13 +6937,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>433</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>434</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>436</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>438</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>441</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>446</v>
       </c>
@@ -7012,12 +7015,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="D12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="D13" s="13" t="s">
         <v>455</v>
       </c>
@@ -7025,7 +7028,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="D14" s="12" t="s">
         <v>448</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="D15" s="12" t="s">
         <v>457</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="D16" s="12" t="s">
         <v>459</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5">
       <c r="D17" s="12" t="s">
         <v>451</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5">
       <c r="D18" s="12" t="s">
         <v>450</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
         <v>449</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
         <v>458</v>
       </c>
@@ -7095,9 +7098,9 @@
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E598A32-EE2E-9B4C-9A09-3295CCC941FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22B673-0D61-7D44-B826-C7E45F57DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="7980" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="531">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1391,18 +1391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>★★★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리눅스 변수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2127,10 +2115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작성중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20241218_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2152,6 +2136,22 @@
   </si>
   <si>
     <t>cloudbeaver 웹 기반 DB 관리 도구 DB툴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-22 23:40:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241211_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 데이터베이스시스템 01강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2279,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2308,7 +2308,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3356,11 +3355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E207" sqref="E207"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3370,7 +3369,7 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4191,9 +4190,7 @@
       <c r="B42" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
@@ -4205,9 +4202,7 @@
       <c r="B43" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
@@ -4219,9 +4214,7 @@
       <c r="B44" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
@@ -4233,9 +4226,7 @@
       <c r="B45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
@@ -4247,9 +4238,7 @@
       <c r="B46" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
@@ -4285,9 +4274,7 @@
       <c r="B49" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
@@ -4299,9 +4286,7 @@
       <c r="B50" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>342</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
@@ -4325,9 +4310,7 @@
       <c r="B52" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -4339,9 +4322,7 @@
       <c r="B53" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
@@ -4353,9 +4334,7 @@
       <c r="B54" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
@@ -4391,9 +4370,7 @@
       <c r="B57" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -4405,9 +4382,7 @@
       <c r="B58" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -4419,9 +4394,7 @@
       <c r="B59" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -4433,9 +4406,7 @@
       <c r="B60" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -4459,9 +4430,7 @@
       <c r="B62" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
@@ -4473,9 +4442,7 @@
       <c r="B63" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
@@ -4499,13 +4466,11 @@
       <c r="B65" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4513,13 +4478,11 @@
       <c r="B66" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4527,123 +4490,107 @@
       <c r="B67" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="1" t="s">
         <v>340</v>
       </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>342</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>342</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>342</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5428,19 +5375,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>27</v>
@@ -5448,19 +5395,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>27</v>
@@ -5468,19 +5415,19 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>27</v>
@@ -5488,68 +5435,68 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>82</v>
@@ -5557,13 +5504,13 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>82</v>
@@ -5571,13 +5518,13 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>82</v>
@@ -5585,13 +5532,13 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>82</v>
@@ -5599,13 +5546,13 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>82</v>
@@ -5613,13 +5560,13 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>82</v>
@@ -5627,13 +5574,13 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>82</v>
@@ -5641,13 +5588,13 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>82</v>
@@ -5655,13 +5602,13 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>82</v>
@@ -5669,13 +5616,13 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>82</v>
@@ -5683,13 +5630,13 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>82</v>
@@ -5697,13 +5644,13 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>82</v>
@@ -5711,13 +5658,13 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>82</v>
@@ -5725,13 +5672,13 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>82</v>
@@ -5739,13 +5686,13 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>82</v>
@@ -5753,13 +5700,13 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>82</v>
@@ -5767,13 +5714,13 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>82</v>
@@ -5781,13 +5728,13 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>82</v>
@@ -5795,13 +5742,13 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>82</v>
@@ -5809,13 +5756,13 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>82</v>
@@ -5823,13 +5770,13 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>82</v>
@@ -5837,13 +5784,13 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>82</v>
@@ -5851,13 +5798,13 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1"/>
       <c r="B143" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>82</v>
@@ -5865,13 +5812,13 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1"/>
       <c r="B144" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>82</v>
@@ -5879,13 +5826,13 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1"/>
       <c r="B145" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>82</v>
@@ -5893,13 +5840,13 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>82</v>
@@ -5907,13 +5854,13 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>82</v>
@@ -5921,13 +5868,13 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1"/>
       <c r="B148" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>82</v>
@@ -5935,13 +5882,13 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>82</v>
@@ -5949,13 +5896,13 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1"/>
       <c r="B150" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>82</v>
@@ -5963,13 +5910,13 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1"/>
       <c r="B151" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>82</v>
@@ -5977,13 +5924,13 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>82</v>
@@ -5991,13 +5938,13 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1"/>
       <c r="B153" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>82</v>
@@ -6005,13 +5952,13 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1"/>
       <c r="B154" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>82</v>
@@ -6019,13 +5966,13 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1"/>
       <c r="B155" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>82</v>
@@ -6033,13 +5980,13 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1"/>
       <c r="B156" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>82</v>
@@ -6047,13 +5994,13 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1"/>
       <c r="B157" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>82</v>
@@ -6061,13 +6008,13 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>82</v>
@@ -6075,13 +6022,13 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1"/>
       <c r="B159" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>82</v>
@@ -6089,13 +6036,13 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1"/>
       <c r="B160" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>82</v>
@@ -6103,13 +6050,13 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1"/>
       <c r="B161" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>82</v>
@@ -6117,13 +6064,13 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1"/>
       <c r="B162" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>82</v>
@@ -6131,13 +6078,13 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1"/>
       <c r="B163" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>82</v>
@@ -6145,13 +6092,13 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1"/>
       <c r="B164" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>82</v>
@@ -6159,13 +6106,13 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1"/>
       <c r="B165" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>82</v>
@@ -6173,13 +6120,13 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1"/>
       <c r="B166" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>82</v>
@@ -6187,7 +6134,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6201,7 +6148,7 @@
         <v>47</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>13</v>
@@ -6215,16 +6162,16 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>13</v>
@@ -6235,16 +6182,16 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>13</v>
@@ -6255,7 +6202,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>49</v>
@@ -6264,7 +6211,7 @@
         <v>47</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>13</v>
@@ -6275,7 +6222,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>50</v>
@@ -6284,7 +6231,7 @@
         <v>47</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>13</v>
@@ -6295,7 +6242,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>51</v>
@@ -6304,7 +6251,7 @@
         <v>47</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>13</v>
@@ -6315,19 +6262,19 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>61</v>
@@ -6335,7 +6282,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>52</v>
@@ -6344,10 +6291,10 @@
         <v>47</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>62</v>
@@ -6355,7 +6302,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>53</v>
@@ -6364,10 +6311,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>63</v>
@@ -6375,7 +6322,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>70</v>
@@ -6384,7 +6331,7 @@
         <v>47</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>13</v>
@@ -6395,7 +6342,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>54</v>
@@ -6404,10 +6351,10 @@
         <v>47</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>64</v>
@@ -6415,7 +6362,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>55</v>
@@ -6424,10 +6371,10 @@
         <v>47</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>65</v>
@@ -6435,7 +6382,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>68</v>
@@ -6444,7 +6391,7 @@
         <v>47</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>13</v>
@@ -6455,7 +6402,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>67</v>
@@ -6464,10 +6411,10 @@
         <v>47</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>66</v>
@@ -6475,20 +6422,20 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6637,16 +6584,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>13</v>
@@ -6657,16 +6604,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
@@ -6674,52 +6621,28 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1"/>
-      <c r="B195" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="F195" s="1"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1"/>
-      <c r="B196" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="F196" s="1"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1"/>
@@ -6730,136 +6653,140 @@
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="B199" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="B200" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>517</v>
-      </c>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1"/>
-      <c r="B203" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>521</v>
-      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="1" t="s">
-        <v>524</v>
-      </c>
+      <c r="E203" s="1"/>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1"/>
-      <c r="B204" s="1" t="s">
-        <v>523</v>
-      </c>
+      <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
+      <c r="A205" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>101</v>
+        <v>518</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="1" t="s">
+        <v>527</v>
+      </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6920,6 +6847,140 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F218" s="1"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="1"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="1"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -6945,7 +7006,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>22</v>
@@ -6953,135 +7014,135 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22B673-0D61-7D44-B826-C7E45F57DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DC147-21E5-9A48-9463-1336C85A3341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19020" yWindow="7980" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="543">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2152,6 +2152,54 @@
   </si>
   <si>
     <t>방송통신대 2024-겨울 데이터베이스시스템 01강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-23 00:26:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241223_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (1) 데이터베이스 모델링 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (2) 사용자 요구사항 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (3) 개념적 데이터 모델링과 ER 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (4) 논리적 데이터 모델링과 관계형 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (5) 물리적 데이터 모델링과 내부 스키마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 데이터베이스시스템 02강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 데이터베이스시스템 03강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간략하게 하고 넘어가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null 이란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관계 연산과 관계 대수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3355,11 +3403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6783,70 +6831,118 @@
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>532</v>
+      </c>
       <c r="B208" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
+      <c r="C208" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
+      <c r="B209" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
+      <c r="F209" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="B210" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
+      <c r="F210" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
+      <c r="F211" s="1" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="B212" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
+      <c r="F212" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
+      <c r="B213" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="1" t="s">
+        <v>541</v>
+      </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
+      <c r="F214" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>542</v>
+      </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
+      <c r="F215" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="1"/>
@@ -6865,57 +6961,27 @@
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="1:6">
-      <c r="A218" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>514</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="1:6">
-      <c r="A219" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="1:6">
@@ -6943,27 +7009,57 @@
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="1:6">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
+      <c r="A225" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="1:6">
@@ -6981,6 +7077,54 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DC147-21E5-9A48-9463-1336C85A3341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3BEC4-526C-4D4A-9446-7814E25A3833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="7980" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29400" yWindow="10420" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="545">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2163,10 +2163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터베이스 모델링 (1) 데이터베이스 모델링 개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터베이스 모델링 (2) 사용자 요구사항 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2200,6 +2196,18 @@
   </si>
   <si>
     <t>관계 연산과 관계 대수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-23 23:14:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241223_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (1) 데이터베이스 모델링의 개념과 모델링 단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3407,7 +3415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A211" sqref="A211"/>
+      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6851,37 +6859,45 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="B209" s="1" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
+      <c r="D209" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F209" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1"/>
       <c r="B210" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
+      <c r="E210" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F210" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>518</v>
@@ -6889,13 +6905,13 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>518</v>
@@ -6903,19 +6919,19 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -6923,25 +6939,25 @@
     <row r="214" spans="1:6">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="216" spans="1:6">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C3BEC4-526C-4D4A-9446-7814E25A3833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53457E24-ADAB-7449-AF14-1CD6B1C7152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29400" yWindow="10420" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15480" yWindow="6620" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="547">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2163,10 +2163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터베이스 모델링 (2) 사용자 요구사항 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터베이스 모델링 (3) 개념적 데이터 모델링과 ER 모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2208,6 +2204,18 @@
   </si>
   <si>
     <t>데이터베이스 모델링 (1) 데이터베이스 모델링의 개념과 모델링 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-24 00:15:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 모델링 (2) 사용자 요구사항 분석의 개념과 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241224_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3415,7 +3423,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D210" sqref="D210"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6860,44 +6868,48 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="B210" s="1" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D210" s="1"/>
+      <c r="D210" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="E210" s="1" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1"/>
       <c r="B211" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>518</v>
@@ -6905,13 +6917,13 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1"/>
       <c r="B212" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>518</v>
@@ -6919,19 +6931,19 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1"/>
       <c r="B213" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -6939,25 +6951,25 @@
     <row r="214" spans="1:6">
       <c r="A214" s="1"/>
       <c r="B214" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="1:6">

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53457E24-ADAB-7449-AF14-1CD6B1C7152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82968BF-C258-0C41-9599-9CC6D84D8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="6620" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14620" yWindow="7620" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="549">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2216,6 +2216,14 @@
   </si>
   <si>
     <t>20241224_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-29 01:58:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241229_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3423,7 +3431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6907,15 +6915,21 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="B211" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
+      <c r="D211" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F211" s="1" t="s">
         <v>536</v>
       </c>

--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82968BF-C258-0C41-9599-9CC6D84D8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BF1DA-9ECC-7448-801B-A9305F064E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="7620" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11600" yWindow="6200" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="598">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2187,10 +2188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Null 이란</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관계 연산과 관계 대수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2224,6 +2221,206 @@
   </si>
   <si>
     <t>20241229_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬북꼬북칩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손난로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로콕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌드위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼펜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농농심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코크콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모나미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[NULL]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-29 16:21:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null 완벽하게 이해하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241229_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노대리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총무부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-29 17:27:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241229_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2231,7 +2428,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2286,6 +2487,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2313,7 +2521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2347,11 +2555,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,8 +2743,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3431,7 +3861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6876,16 +7306,16 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>13</v>
@@ -6896,16 +7326,16 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>13</v>
@@ -6916,7 +7346,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>533</v>
@@ -6925,7 +7355,7 @@
         <v>518</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>13</v>
@@ -6935,15 +7365,21 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="B212" s="1" t="s">
         <v>534</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
+      <c r="D212" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F212" s="1" t="s">
         <v>537</v>
       </c>
@@ -6963,13 +7399,21 @@
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="B214" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
+        <v>575</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F214" s="1" t="s">
         <v>537</v>
       </c>
@@ -6977,7 +7421,7 @@
     <row r="215" spans="1:6">
       <c r="A215" s="1"/>
       <c r="B215" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7341,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBEA981-5063-FA43-8603-9FE820B29075}">
   <dimension ref="B28:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -7356,4 +7800,362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FC2366-FE9A-8A44-AAA3-1E2A88006EE3}">
+  <dimension ref="B12:H28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="225" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" style="14"/>
+    <col min="6" max="6" width="12.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:8" ht="28" customHeight="1">
+      <c r="B12" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20" customHeight="1">
+      <c r="B13" s="17">
+        <v>1234567</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8801234</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20" customHeight="1">
+      <c r="B14" s="17">
+        <v>5642137</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="E14" s="17">
+        <v>8804512</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20" customHeight="1">
+      <c r="B15" s="17">
+        <v>6542139</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1005452</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2300</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="20" customHeight="1">
+      <c r="B16" s="17">
+        <v>1246123</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E16" s="17">
+        <v>8807451</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2700</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="17">
+        <v>6742314</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E17" s="17">
+        <v>8806464</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3300</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="20" customHeight="1">
+      <c r="B18" s="17">
+        <v>4124974</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="E18" s="17">
+        <v>8803245</v>
+      </c>
+      <c r="F18" s="18">
+        <v>900</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="17">
+        <v>7778456</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E19" s="17">
+        <v>4402145</v>
+      </c>
+      <c r="F19" s="18">
+        <v>900</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="28" customHeight="1">
+      <c r="B22" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="2:8" ht="20" customHeight="1">
+      <c r="B23" s="17">
+        <v>1234567</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="G23" s="21">
+        <v>78000000</v>
+      </c>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="2:8" ht="20" customHeight="1">
+      <c r="B24" s="17">
+        <v>6542139</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="G24" s="21">
+        <v>57000000</v>
+      </c>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="2:8" ht="20" customHeight="1" thickBot="1">
+      <c r="B25" s="23">
+        <v>1246123</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="G25" s="25">
+        <v>42000000</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" thickBot="1">
+      <c r="B26" s="31">
+        <v>6742314</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="H26" s="35"/>
+    </row>
+    <row r="27" spans="2:8" ht="20" customHeight="1">
+      <c r="B27" s="27">
+        <v>4124974</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="G27" s="29">
+        <v>50000000</v>
+      </c>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="17">
+        <v>7778456</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="G28" s="21">
+        <v>48000000</v>
+      </c>
+      <c r="H28" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/xlsx/00_content_list.xlsx
+++ b/assets/xlsx/00_content_list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65BF1DA-9ECC-7448-801B-A9305F064E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968BAD6-9732-8A41-8C50-B0C3A3FC821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11600" yWindow="6200" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$6</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="615">
   <si>
     <t>post code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1752,114 +1752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bash script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chmod -x script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크립트 첫 번째 줄에 #!(해시뱅)이 있어야 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스크립트 실행 후 현재 셸에서 환경변수 유지됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터프리터를 명시적으로 호출해 스크립트 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bin/bash script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셸을 지정하여 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bash -x script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셸 스크립트를 디버그 모드로 실행. 명령 실행 전 해당 명령을 출력함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>builtin script.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오답. Builtin source script.sh 처럼 사용해야 함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sftp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암호화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024-10-21 12:30:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2184,10 +2076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>간략하게 하고 넘어가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관계 연산과 관계 대수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2421,6 +2309,186 @@
   </si>
   <si>
     <t>20241229_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241229_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-29 17:31:00 +0900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방송통신대 2024-겨울 데이터베이스시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비서실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내선번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A타워 7층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A타워 8층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리더 사번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략기획실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정대리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표 릴레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀렉트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원정보 릴레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서정보 릴레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카티시언 프로덕트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총무부직원정보 릴레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집계함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT(*)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM(연봉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG(연봉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20241229_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-30 01:03:00 +0900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2430,9 +2498,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2494,8 +2562,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2511,12 +2588,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,7 +2785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2734,15 +2805,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2755,20 +2817,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2776,23 +2826,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2803,11 +2841,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2816,6 +2899,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB4D3ED"/>
+      <color rgb="FF62B5FF"/>
+      <color rgb="FF5CA3E5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3594,6 +3684,933 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>221375</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>184803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>362124</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED6F2A7-FD82-6EAF-F2AD-E8B2990B19B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1048623" y="15226730"/>
+          <a:ext cx="5255703" cy="823907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396147</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>201948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279633</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>100232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01DC144-0B59-3A58-628E-2129D1EA2B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223395" y="17679012"/>
+          <a:ext cx="4998440" cy="783789"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216985</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>116110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472262</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>139407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E1AA78-1910-DB61-5F54-CE775FA53DA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863518" y="22133698"/>
+          <a:ext cx="3701508" cy="674252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255277</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>181375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586369</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>94364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768C025B-6CE1-9E46-5177-4D2F7CEA6EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1901810" y="25019767"/>
+          <a:ext cx="3777323" cy="780929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82963</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>23452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470984</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>49969</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F02CD7-DE2C-7309-7171-BD303390A116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4199295" y="31843653"/>
+          <a:ext cx="3010985" cy="677472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216985</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>57437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426823</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>70361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AEE81D-84BB-DE3E-BC3A-87FCDBCF72C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863518" y="40595326"/>
+          <a:ext cx="7772400" cy="663879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695626</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>22994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299183</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>171854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C1F0AB-00AF-53C6-BE5F-52590661EFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2342159" y="42947718"/>
+          <a:ext cx="7166119" cy="799814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>555226</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>52637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560841</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>19916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB90536D-BD56-5BF8-53CD-6A870F0CA70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1378492" y="49091230"/>
+          <a:ext cx="4275113" cy="618234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63820</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>19544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5616</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>38249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80365CE-8935-1A7D-D679-B29968AC9745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="887086" y="50794016"/>
+          <a:ext cx="5034560" cy="669660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114874</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>162501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114107</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>199939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{925431A1-950A-1008-49DF-FCA1A01EA39C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1761407" y="55531948"/>
+          <a:ext cx="3445464" cy="688393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>536080</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>65662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>522548</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>75588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{789D3703-EBF7-EB84-4A80-FB2C93AD24F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1359346" y="57821943"/>
+          <a:ext cx="3279534" cy="443896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>644573</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>35507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>382148</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>107947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CB823F-9785-66A2-7730-F6925B71EA3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1467839" y="59527668"/>
+          <a:ext cx="4007073" cy="506410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51054</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>155371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197073</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>133915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83336EB-5F4E-E7E8-25D8-27A5E4603EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1697587" y="65544416"/>
+          <a:ext cx="3592250" cy="846484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B047E7-4DF7-C1A9-6191-321025E9E3E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="393700" y="1244600"/>
+          <a:ext cx="7277100" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="B4D3ED"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E522BAE4-37A7-DC6C-C68B-A5EA1E345C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="863600"/>
+          <a:ext cx="1333500" cy="2260600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="ko-KR" sz="13800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Gungsuh" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>σ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800" kern="1200">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Gungsuh" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801D9F8C-50DB-B34B-8E64-A59B7C60CF12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216400" y="1384300"/>
+          <a:ext cx="1422400" cy="1397000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8000" b="0" kern="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="Gungsuh" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(R)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8000" kern="1200">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="Gungsuh" panose="02030600000101010101" pitchFamily="18" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E239BB02-2455-1B46-B2A9-8C46780DD2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="2019300"/>
+          <a:ext cx="1422400" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="3600" b="0" kern="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>조건</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600" kern="1200">
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3860,8 +4877,8 @@
   <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -6650,7 +7667,7 @@
         <v>47</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>13</v>
@@ -6664,16 +7681,16 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>13</v>
@@ -6684,16 +7701,16 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>13</v>
@@ -6704,7 +7721,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>49</v>
@@ -6713,7 +7730,7 @@
         <v>47</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>13</v>
@@ -6724,7 +7741,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>50</v>
@@ -6733,7 +7750,7 @@
         <v>47</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>13</v>
@@ -6744,7 +7761,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>51</v>
@@ -6753,7 +7770,7 @@
         <v>47</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>13</v>
@@ -6764,19 +7781,19 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>61</v>
@@ -6784,7 +7801,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>52</v>
@@ -6793,10 +7810,10 @@
         <v>47</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>62</v>
@@ -6804,7 +7821,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>53</v>
@@ -6813,10 +7830,10 @@
         <v>47</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>63</v>
@@ -6824,7 +7841,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>70</v>
@@ -6833,7 +7850,7 @@
         <v>47</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>13</v>
@@ -6844,7 +7861,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>54</v>
@@ -6853,10 +7870,10 @@
         <v>47</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>64</v>
@@ -6864,7 +7881,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>55</v>
@@ -6873,10 +7890,10 @@
         <v>47</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>65</v>
@@ -6884,7 +7901,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>68</v>
@@ -6893,7 +7910,7 @@
         <v>47</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>13</v>
@@ -6904,7 +7921,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>67</v>
@@ -6913,10 +7930,10 @@
         <v>47</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>66</v>
@@ -6924,20 +7941,20 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7086,16 +8103,16 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>13</v>
@@ -7106,16 +8123,16 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1" t="s">
@@ -7156,28 +8173,28 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>508</v>
+        <v>481</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>19</v>
@@ -7185,13 +8202,13 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>19</v>
@@ -7199,7 +8216,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1" t="s">
-        <v>505</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7236,48 +8253,48 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1"/>
       <c r="B207" s="1" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7286,148 +8303,162 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="B213" s="1" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
+        <v>571</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1" t="s">
+        <v>613</v>
+      </c>
       <c r="B215" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
+        <v>511</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F215" s="1" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -7496,34 +8527,34 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" s="1" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>510</v>
+        <v>483</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="1" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>13</v>
@@ -7532,16 +8563,16 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>13</v>
@@ -7621,171 +8652,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B4D06-9B68-C449-A63A-387935437D0A}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="D14" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>450</v>
-      </c>
-    <